--- a/resources/FullscreenV2_inverted.xlsx
+++ b/resources/FullscreenV2_inverted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhuismans/surfdrive/Promotie/12. STRATEGIC/Analyse 2.0/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F035F-2166-7345-86C2-81FE3B0D8F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1C9CF-2B66-7742-BBA0-0DCFA3F91060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="-3060" windowWidth="35060" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36200" yWindow="500" windowWidth="35060" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="427">
   <si>
     <t>Organoid</t>
   </si>
@@ -95,20 +95,9 @@
     <t>conc_Vinorelbine</t>
   </si>
   <si>
-    <t>Volume (nL)
-DMSO normalization</t>
-  </si>
-  <si>
-    <t>Volume (nL)
-a+Tw normalization</t>
-  </si>
-  <si>
     <t>Total well volume (nL)</t>
   </si>
   <si>
-    <t>DMSO %</t>
-  </si>
-  <si>
     <t>xx</t>
   </si>
   <si>
@@ -1322,6 +1311,12 @@
   </si>
   <si>
     <t>conc_condition</t>
+  </si>
+  <si>
+    <t>DMSO</t>
+  </si>
+  <si>
+    <t>DMSO_pct</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1654,7 @@
   <dimension ref="A1:X385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="U1" sqref="U1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1726,27 +1721,27 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1764,7 +1759,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1772,10 +1767,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1784,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1801,10 +1796,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1813,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>10000.224713150001</v>
@@ -1836,10 +1831,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1848,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5">
         <v>10000.224713150001</v>
@@ -1871,10 +1866,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1883,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>10000.224713150001</v>
@@ -1906,10 +1901,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1918,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>1500.058</v>
@@ -1941,10 +1936,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1953,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>1500.058</v>
@@ -1973,10 +1968,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1985,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>1500.058</v>
@@ -2005,10 +2000,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2017,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>1.999801999802</v>
@@ -2037,10 +2032,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2049,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>1.999801999802</v>
@@ -2072,10 +2067,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2084,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <v>1.999801999802</v>
@@ -2107,10 +2102,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2119,7 +2114,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>19.998019998019998</v>
@@ -2142,10 +2137,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2154,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>19.998019998019998</v>
@@ -2177,10 +2172,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2189,7 +2184,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <v>19.998019998019998</v>
@@ -2212,10 +2207,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2224,7 +2219,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>19.998019998019998</v>
@@ -2247,10 +2242,10 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2259,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>19.998019998019998</v>
@@ -2282,10 +2277,10 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2294,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>19.998019998019998</v>
@@ -2317,10 +2312,10 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2329,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>19.998019998019998</v>
@@ -2352,10 +2347,10 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2364,7 +2359,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J20">
         <v>19.998019998019998</v>
@@ -2387,10 +2382,10 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2399,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>19.998019998019998</v>
@@ -2422,10 +2417,10 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2434,7 +2429,7 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J22">
         <v>0.59895059895059999</v>
@@ -2457,10 +2452,10 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2469,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>0.59895059895059999</v>
@@ -2492,10 +2487,10 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2504,7 +2499,7 @@
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>0.59895059895059999</v>
@@ -2527,10 +2522,10 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2539,7 +2534,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J25">
         <v>0.99990099990100001</v>
@@ -2562,10 +2557,10 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2574,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2582,10 +2577,10 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2594,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2611,10 +2606,10 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2623,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J28">
         <v>2213.094792586</v>
@@ -2646,10 +2641,10 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2658,7 +2653,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J29">
         <v>2213.094792586</v>
@@ -2681,10 +2676,10 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2693,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J30">
         <v>2213.094792586</v>
@@ -2716,10 +2711,10 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2728,7 +2723,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J31">
         <v>379.69358</v>
@@ -2751,10 +2746,10 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2763,7 +2758,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J32">
         <v>379.69358</v>
@@ -2786,10 +2781,10 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2798,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J33">
         <v>379.69358</v>
@@ -2821,10 +2816,10 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2833,7 +2828,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J34">
         <v>0.63360063360060004</v>
@@ -2856,10 +2851,10 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2868,7 +2863,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J35">
         <v>0.63360063360060004</v>
@@ -2891,10 +2886,10 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2903,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J36">
         <v>0.63360063360060004</v>
@@ -2926,10 +2921,10 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2938,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J37">
         <v>6.1380061380060003</v>
@@ -2961,10 +2956,10 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2973,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>6.1380061380060003</v>
@@ -2996,10 +2991,10 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3008,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J39">
         <v>6.1380061380060003</v>
@@ -3031,10 +3026,10 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3043,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>6.1380061380060003</v>
@@ -3066,10 +3061,10 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3078,7 +3073,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J41">
         <v>6.1380061380060003</v>
@@ -3101,10 +3096,10 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3113,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>6.1380061380060003</v>
@@ -3136,10 +3131,10 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3148,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>6.1380061380060003</v>
@@ -3171,10 +3166,10 @@
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3183,7 +3178,7 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>6.1380061380060003</v>
@@ -3206,10 +3201,10 @@
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3218,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>6.1380061380060003</v>
@@ -3241,10 +3236,10 @@
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3253,7 +3248,7 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <v>0.21780021780020001</v>
@@ -3276,10 +3271,10 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3288,7 +3283,7 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J47">
         <v>0.21780021780020001</v>
@@ -3311,10 +3306,10 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3323,7 +3318,7 @@
         <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>0.21780021780020001</v>
@@ -3346,10 +3341,10 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3358,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>0.33660033660029998</v>
@@ -3381,10 +3376,10 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3393,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3401,10 +3396,10 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3413,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3430,10 +3425,10 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3442,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <v>489.5045013239</v>
@@ -3465,10 +3460,10 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3477,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J53">
         <v>489.5045013239</v>
@@ -3500,10 +3495,10 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3512,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J54">
         <v>489.5045013239</v>
@@ -3535,10 +3530,10 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3547,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J55">
         <v>96.196380000000005</v>
@@ -3570,10 +3565,10 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3582,7 +3577,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J56">
         <v>96.196380000000005</v>
@@ -3605,10 +3600,10 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3617,7 +3612,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J57">
         <v>96.196380000000005</v>
@@ -3640,10 +3635,10 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3652,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J58">
         <v>0.1980001980002</v>
@@ -3675,10 +3670,10 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3687,7 +3682,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J59">
         <v>0.1980001980002</v>
@@ -3710,10 +3705,10 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3722,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J60">
         <v>0.1980001980002</v>
@@ -3745,10 +3740,10 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3757,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J61">
         <v>1.8810018810019999</v>
@@ -3780,10 +3775,10 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3792,7 +3787,7 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>1.8810018810019999</v>
@@ -3815,10 +3810,10 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3827,7 +3822,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J63">
         <v>1.8810018810019999</v>
@@ -3850,10 +3845,10 @@
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3862,7 +3857,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>1.8810018810019999</v>
@@ -3885,10 +3880,10 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3897,7 +3892,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J65">
         <v>1.8810018810019999</v>
@@ -3920,10 +3915,10 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3932,7 +3927,7 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1.8810018810019999</v>
@@ -3955,10 +3950,10 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3967,7 +3962,7 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>1.8810018810019999</v>
@@ -3990,10 +3985,10 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4002,7 +3997,7 @@
         <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J68">
         <v>1.8810018810019999</v>
@@ -4025,10 +4020,10 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -4037,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J69">
         <v>1.8810018810019999</v>
@@ -4060,10 +4055,10 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4072,7 +4067,7 @@
         <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>7.9200079200080001E-2</v>
@@ -4095,10 +4090,10 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4107,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J71">
         <v>7.9200079200080001E-2</v>
@@ -4130,10 +4125,10 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4142,7 +4137,7 @@
         <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J72">
         <v>7.9200079200080001E-2</v>
@@ -4165,10 +4160,10 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4177,7 +4172,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J73">
         <v>0.1188001188001</v>
@@ -4200,10 +4195,10 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4212,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4220,10 +4215,10 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4232,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4249,10 +4244,10 @@
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4261,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J76">
         <v>108.1039717564</v>
@@ -4284,10 +4279,10 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4296,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J77">
         <v>108.1039717564</v>
@@ -4319,10 +4314,10 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4331,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J78">
         <v>108.1039717564</v>
@@ -4354,10 +4349,10 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -4366,7 +4361,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J79">
         <v>24.358740000000001</v>
@@ -4389,10 +4384,10 @@
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -4401,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J80">
         <v>24.358740000000001</v>
@@ -4424,10 +4419,10 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -4436,7 +4431,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J81">
         <v>24.358740000000001</v>
@@ -4459,10 +4454,10 @@
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -4471,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J82">
         <v>6.4350064350059993E-2</v>
@@ -4494,10 +4489,10 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -4506,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>6.4350064350059993E-2</v>
@@ -4529,10 +4524,10 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -4541,7 +4536,7 @@
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J84">
         <v>6.4350064350059993E-2</v>
@@ -4564,10 +4559,10 @@
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -4576,7 +4571,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>0.5742005742006</v>
@@ -4599,10 +4594,10 @@
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -4611,7 +4606,7 @@
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>0.5742005742006</v>
@@ -4634,10 +4629,10 @@
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4646,7 +4641,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J87">
         <v>0.5742005742006</v>
@@ -4669,10 +4664,10 @@
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -4681,7 +4676,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>0.5742005742006</v>
@@ -4704,10 +4699,10 @@
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -4716,7 +4711,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>0.5742005742006</v>
@@ -4739,10 +4734,10 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -4751,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J90">
         <v>0.5742005742006</v>
@@ -4774,10 +4769,10 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -4786,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J91">
         <v>0.5742005742006</v>
@@ -4809,10 +4804,10 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -4821,7 +4816,7 @@
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>0.5742005742006</v>
@@ -4844,10 +4839,10 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -4856,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J93">
         <v>0.5742005742006</v>
@@ -4879,10 +4874,10 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4891,7 +4886,7 @@
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J94">
         <v>2.8710028710029999E-2</v>
@@ -4914,10 +4909,10 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4926,7 +4921,7 @@
         <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J95">
         <v>2.8710028710029999E-2</v>
@@ -4949,10 +4944,10 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -4961,7 +4956,7 @@
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J96">
         <v>2.8710028710029999E-2</v>
@@ -4984,10 +4979,10 @@
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -4996,7 +4991,7 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>3.8610038610039997E-2</v>
@@ -5019,10 +5014,10 @@
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -5031,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5039,10 +5034,10 @@
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -5051,7 +5046,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5068,10 +5063,10 @@
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -5080,7 +5075,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J100">
         <v>24.293244185980001</v>
@@ -5103,10 +5098,10 @@
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -5115,7 +5110,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J101">
         <v>24.293244185980001</v>
@@ -5138,10 +5133,10 @@
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5150,7 +5145,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J102">
         <v>24.293244185980001</v>
@@ -5173,10 +5168,10 @@
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -5185,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J103">
         <v>6.192706084668</v>
@@ -5208,10 +5203,10 @@
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -5220,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J104">
         <v>6.192706084668</v>
@@ -5243,10 +5238,10 @@
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -5255,7 +5250,7 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J105">
         <v>6.192706084668</v>
@@ -5278,10 +5273,10 @@
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -5290,7 +5285,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J106">
         <v>2.079002079002E-2</v>
@@ -5313,10 +5308,10 @@
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -5325,7 +5320,7 @@
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J107">
         <v>2.079002079002E-2</v>
@@ -5348,10 +5343,10 @@
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -5360,7 +5355,7 @@
         <v>11</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J108">
         <v>2.079002079002E-2</v>
@@ -5383,10 +5378,10 @@
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -5395,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J109">
         <v>0.17325017325020001</v>
@@ -5418,10 +5413,10 @@
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -5430,7 +5425,7 @@
         <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J110">
         <v>0.17325017325020001</v>
@@ -5453,10 +5448,10 @@
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -5465,7 +5460,7 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>0.17325017325020001</v>
@@ -5488,10 +5483,10 @@
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -5500,7 +5495,7 @@
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J112">
         <v>0.17325017325020001</v>
@@ -5523,10 +5518,10 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -5535,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>0.17325017325020001</v>
@@ -5558,10 +5553,10 @@
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -5570,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>0.17325017325020001</v>
@@ -5593,10 +5588,10 @@
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -5605,7 +5600,7 @@
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>0.17325017325020001</v>
@@ -5628,10 +5623,10 @@
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -5640,7 +5635,7 @@
         <v>19</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>0.17325017325020001</v>
@@ -5663,10 +5658,10 @@
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -5675,7 +5670,7 @@
         <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>0.17325017325020001</v>
@@ -5698,10 +5693,10 @@
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -5710,7 +5705,7 @@
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>1.039501039501E-2</v>
@@ -5733,10 +5728,10 @@
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -5745,7 +5740,7 @@
         <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J119">
         <v>1.039501039501E-2</v>
@@ -5768,10 +5763,10 @@
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -5780,7 +5775,7 @@
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J120">
         <v>1.039501039501E-2</v>
@@ -5803,10 +5798,10 @@
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -5815,7 +5810,7 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J121">
         <v>1.287001287001E-2</v>
@@ -5838,10 +5833,10 @@
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5850,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5858,10 +5853,10 @@
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -5870,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5887,10 +5882,10 @@
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D124">
         <v>6</v>
@@ -5899,7 +5894,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J124">
         <v>5.2969257986829996</v>
@@ -5922,10 +5917,10 @@
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5934,7 +5929,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J125">
         <v>5.2969257986829996</v>
@@ -5957,10 +5952,10 @@
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D126">
         <v>6</v>
@@ -5969,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J126">
         <v>5.2969257986829996</v>
@@ -5992,10 +5987,10 @@
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -6004,7 +5999,7 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J127">
         <v>1.5138539831090001</v>
@@ -6027,10 +6022,10 @@
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -6039,7 +6034,7 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J128">
         <v>1.5138539831090001</v>
@@ -6062,10 +6057,10 @@
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -6074,7 +6069,7 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J129">
         <v>1.5138539831090001</v>
@@ -6097,10 +6092,10 @@
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -6109,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J130">
         <v>6.9300069300070001E-3</v>
@@ -6132,10 +6127,10 @@
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -6144,7 +6139,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J131">
         <v>6.9300069300070001E-3</v>
@@ -6167,10 +6162,10 @@
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -6179,7 +6174,7 @@
         <v>11</v>
       </c>
       <c r="I132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J132">
         <v>6.9300069300070001E-3</v>
@@ -6202,10 +6197,10 @@
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -6214,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J133">
         <v>5.4450054450050002E-2</v>
@@ -6237,10 +6232,10 @@
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6249,7 +6244,7 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J134">
         <v>5.4450054450050002E-2</v>
@@ -6272,10 +6267,10 @@
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6284,7 +6279,7 @@
         <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>5.4450054450050002E-2</v>
@@ -6307,10 +6302,10 @@
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -6319,7 +6314,7 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>5.4450054450050002E-2</v>
@@ -6342,10 +6337,10 @@
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6354,7 +6349,7 @@
         <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J137">
         <v>5.4450054450050002E-2</v>
@@ -6377,10 +6372,10 @@
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6389,7 +6384,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>5.4450054450050002E-2</v>
@@ -6412,10 +6407,10 @@
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -6424,7 +6419,7 @@
         <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>5.4450054450050002E-2</v>
@@ -6447,10 +6442,10 @@
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -6459,7 +6454,7 @@
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>5.4450054450050002E-2</v>
@@ -6482,10 +6477,10 @@
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -6494,7 +6489,7 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>5.4450054450050002E-2</v>
@@ -6517,10 +6512,10 @@
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -6529,7 +6524,7 @@
         <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>3.7125037125040001E-3</v>
@@ -6552,10 +6547,10 @@
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -6564,7 +6559,7 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J143">
         <v>3.7125037125040001E-3</v>
@@ -6587,10 +6582,10 @@
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -6599,7 +6594,7 @@
         <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>3.7125037125040001E-3</v>
@@ -6622,10 +6617,10 @@
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6634,7 +6629,7 @@
         <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J145">
         <v>4.455004455004E-3</v>
@@ -6657,10 +6652,10 @@
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -6669,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6677,10 +6672,10 @@
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6689,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6706,10 +6701,10 @@
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -6718,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J148">
         <v>1.1691476766310001</v>
@@ -6741,10 +6736,10 @@
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -6753,7 +6748,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J149">
         <v>1.1691476766310001</v>
@@ -6776,10 +6771,10 @@
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -6788,7 +6783,7 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J150">
         <v>1.1691476766310001</v>
@@ -6811,10 +6806,10 @@
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -6823,7 +6818,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J151">
         <v>0.39468873208049998</v>
@@ -6846,10 +6841,10 @@
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -6858,7 +6853,7 @@
         <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J152">
         <v>0.39468873208049998</v>
@@ -6881,10 +6876,10 @@
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -6893,7 +6888,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J153">
         <v>0.39468873208049998</v>
@@ -6916,10 +6911,10 @@
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -6928,7 +6923,7 @@
         <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J154">
         <v>1.980001980002E-3</v>
@@ -6951,10 +6946,10 @@
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -6963,7 +6958,7 @@
         <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J155">
         <v>1.980001980002E-3</v>
@@ -6986,10 +6981,10 @@
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -6998,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="I156" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J156">
         <v>1.980001980002E-3</v>
@@ -7021,10 +7016,10 @@
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -7033,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J157">
         <v>1.485001485001E-2</v>
@@ -7056,10 +7051,10 @@
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -7068,7 +7063,7 @@
         <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>1.485001485001E-2</v>
@@ -7091,10 +7086,10 @@
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -7103,7 +7098,7 @@
         <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J159">
         <v>1.485001485001E-2</v>
@@ -7126,10 +7121,10 @@
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D160">
         <v>7</v>
@@ -7138,7 +7133,7 @@
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J160">
         <v>1.485001485001E-2</v>
@@ -7161,10 +7156,10 @@
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D161">
         <v>7</v>
@@ -7173,7 +7168,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>1.485001485001E-2</v>
@@ -7196,10 +7191,10 @@
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -7208,7 +7203,7 @@
         <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>1.485001485001E-2</v>
@@ -7231,10 +7226,10 @@
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -7243,7 +7238,7 @@
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J163">
         <v>1.485001485001E-2</v>
@@ -7266,10 +7261,10 @@
     </row>
     <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -7278,7 +7273,7 @@
         <v>19</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J164">
         <v>1.485001485001E-2</v>
@@ -7301,10 +7296,10 @@
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -7313,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J165">
         <v>1.485001485001E-2</v>
@@ -7336,10 +7331,10 @@
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7348,7 +7343,7 @@
         <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J166">
         <v>1.485001485001E-3</v>
@@ -7371,10 +7366,10 @@
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -7383,7 +7378,7 @@
         <v>22</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>1.485001485001E-3</v>
@@ -7406,10 +7401,10 @@
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -7418,7 +7413,7 @@
         <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J168">
         <v>1.485001485001E-3</v>
@@ -7441,10 +7436,10 @@
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D169">
         <v>7</v>
@@ -7453,7 +7448,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>1.485001485001E-3</v>
@@ -7476,10 +7471,10 @@
     </row>
     <row r="170" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D170">
         <v>8</v>
@@ -7488,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7496,10 +7491,10 @@
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D171">
         <v>8</v>
@@ -7508,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7525,10 +7520,10 @@
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D172">
         <v>8</v>
@@ -7537,7 +7532,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J172">
         <v>0.26246204112589999</v>
@@ -7560,10 +7555,10 @@
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D173">
         <v>8</v>
@@ -7572,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J173">
         <v>0.26246204112589999</v>
@@ -7595,10 +7590,10 @@
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -7607,7 +7602,7 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J174">
         <v>0.26246204112589999</v>
@@ -7630,10 +7625,10 @@
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D175">
         <v>8</v>
@@ -7642,7 +7637,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J175">
         <v>0.1000242014463</v>
@@ -7665,10 +7660,10 @@
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D176">
         <v>8</v>
@@ -7677,7 +7672,7 @@
         <v>7</v>
       </c>
       <c r="I176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J176">
         <v>0.1000242014463</v>
@@ -7700,10 +7695,10 @@
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D177">
         <v>8</v>
@@ -7712,7 +7707,7 @@
         <v>8</v>
       </c>
       <c r="I177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J177">
         <v>0.1000242014463</v>
@@ -7735,10 +7730,10 @@
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D178">
         <v>8</v>
@@ -7747,7 +7742,7 @@
         <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J178">
         <v>6.435006435006E-4</v>
@@ -7770,10 +7765,10 @@
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -7782,7 +7777,7 @@
         <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J179">
         <v>6.435006435006E-4</v>
@@ -7805,10 +7800,10 @@
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -7817,7 +7812,7 @@
         <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J180">
         <v>6.435006435006E-4</v>
@@ -7840,10 +7835,10 @@
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D181">
         <v>8</v>
@@ -7852,7 +7847,7 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J181">
         <v>4.950004950005E-3</v>
@@ -7875,10 +7870,10 @@
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -7887,7 +7882,7 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J182">
         <v>4.950004950005E-3</v>
@@ -7910,10 +7905,10 @@
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -7922,7 +7917,7 @@
         <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J183">
         <v>4.950004950005E-3</v>
@@ -7945,10 +7940,10 @@
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -7957,7 +7952,7 @@
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J184">
         <v>4.950004950005E-3</v>
@@ -7980,10 +7975,10 @@
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D185">
         <v>8</v>
@@ -7992,7 +7987,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J185">
         <v>4.950004950005E-3</v>
@@ -8015,10 +8010,10 @@
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D186">
         <v>8</v>
@@ -8027,7 +8022,7 @@
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J186">
         <v>4.950004950005E-3</v>
@@ -8050,10 +8045,10 @@
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D187">
         <v>8</v>
@@ -8062,7 +8057,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>4.950004950005E-3</v>
@@ -8085,10 +8080,10 @@
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D188">
         <v>8</v>
@@ -8097,7 +8092,7 @@
         <v>19</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>4.950004950005E-3</v>
@@ -8120,10 +8115,10 @@
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -8132,7 +8127,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J189">
         <v>4.950004950005E-3</v>
@@ -8155,10 +8150,10 @@
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D190">
         <v>8</v>
@@ -8167,7 +8162,7 @@
         <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J190">
         <v>4.950004950005E-4</v>
@@ -8190,10 +8185,10 @@
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D191">
         <v>8</v>
@@ -8202,7 +8197,7 @@
         <v>22</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>4.950004950005E-4</v>
@@ -8225,10 +8220,10 @@
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C192" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D192">
         <v>8</v>
@@ -8237,7 +8232,7 @@
         <v>23</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J192">
         <v>4.950004950005E-4</v>
@@ -8260,10 +8255,10 @@
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -8272,7 +8267,7 @@
         <v>24</v>
       </c>
       <c r="I193" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J193">
         <v>4.950004950005E-4</v>
@@ -8295,10 +8290,10 @@
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C194" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -8307,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J194">
         <v>19.998019998019998</v>
@@ -8330,10 +8325,10 @@
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D195">
         <v>9</v>
@@ -8342,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J195">
         <v>19.998019998019998</v>
@@ -8365,10 +8360,10 @@
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -8377,7 +8372,7 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J196">
         <v>19.998019998019998</v>
@@ -8400,10 +8395,10 @@
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -8412,7 +8407,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J197">
         <v>19.998019998019998</v>
@@ -8435,10 +8430,10 @@
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D198">
         <v>9</v>
@@ -8447,7 +8442,7 @@
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J198">
         <v>19.998019998019998</v>
@@ -8470,10 +8465,10 @@
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -8482,7 +8477,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J199">
         <v>19.998019998019998</v>
@@ -8505,10 +8500,10 @@
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D200">
         <v>9</v>
@@ -8517,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J200">
         <v>19.998019998019998</v>
@@ -8540,10 +8535,10 @@
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D201">
         <v>9</v>
@@ -8552,7 +8547,7 @@
         <v>8</v>
       </c>
       <c r="I201" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J201">
         <v>19.998019998019998</v>
@@ -8575,10 +8570,10 @@
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C202" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -8587,7 +8582,7 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J202">
         <v>19.998019998019998</v>
@@ -8610,10 +8605,10 @@
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D203">
         <v>9</v>
@@ -8622,7 +8617,7 @@
         <v>10</v>
       </c>
       <c r="I203" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J203">
         <v>1.999801999802</v>
@@ -8645,10 +8640,10 @@
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C204" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D204">
         <v>9</v>
@@ -8657,7 +8652,7 @@
         <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J204">
         <v>1.999801999802</v>
@@ -8680,10 +8675,10 @@
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D205">
         <v>9</v>
@@ -8692,7 +8687,7 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J205">
         <v>1.999801999802</v>
@@ -8715,10 +8710,10 @@
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D206">
         <v>9</v>
@@ -8727,7 +8722,7 @@
         <v>13</v>
       </c>
       <c r="I206" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J206">
         <v>85.041000850410001</v>
@@ -8750,10 +8745,10 @@
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -8762,7 +8757,7 @@
         <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J207">
         <v>85.041000850410001</v>
@@ -8785,10 +8780,10 @@
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D208">
         <v>9</v>
@@ -8797,7 +8792,7 @@
         <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J208">
         <v>85.041000850410001</v>
@@ -8820,10 +8815,10 @@
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D209">
         <v>9</v>
@@ -8832,7 +8827,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J209">
         <v>0.59895059895059999</v>
@@ -8858,10 +8853,10 @@
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -8870,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="I210" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J210">
         <v>0.59895059895059999</v>
@@ -8896,10 +8891,10 @@
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C211" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D211">
         <v>9</v>
@@ -8908,7 +8903,7 @@
         <v>18</v>
       </c>
       <c r="I211" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J211">
         <v>0.59895059895059999</v>
@@ -8934,10 +8929,10 @@
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D212">
         <v>9</v>
@@ -8946,7 +8941,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J212">
         <v>85.04108504109</v>
@@ -8969,10 +8964,10 @@
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -8981,7 +8976,7 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J213">
         <v>85.04108504109</v>
@@ -9004,10 +8999,10 @@
     </row>
     <row r="214" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D214">
         <v>9</v>
@@ -9016,7 +9011,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J214">
         <v>85.04108504109</v>
@@ -9039,10 +9034,10 @@
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D215">
         <v>9</v>
@@ -9051,7 +9046,7 @@
         <v>22</v>
       </c>
       <c r="I215" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J215">
         <v>0.99990099990100001</v>
@@ -9074,10 +9069,10 @@
     </row>
     <row r="216" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C216" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D216">
         <v>9</v>
@@ -9086,7 +9081,7 @@
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J216">
         <v>0.99990099990100001</v>
@@ -9109,10 +9104,10 @@
     </row>
     <row r="217" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -9121,7 +9116,7 @@
         <v>24</v>
       </c>
       <c r="I217" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -9138,10 +9133,10 @@
     </row>
     <row r="218" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D218">
         <v>10</v>
@@ -9150,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J218">
         <v>6.1380061380060003</v>
@@ -9173,10 +9168,10 @@
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D219">
         <v>10</v>
@@ -9185,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J219">
         <v>6.1380061380060003</v>
@@ -9208,10 +9203,10 @@
     </row>
     <row r="220" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C220" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D220">
         <v>10</v>
@@ -9220,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J220">
         <v>6.1380061380060003</v>
@@ -9243,10 +9238,10 @@
     </row>
     <row r="221" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D221">
         <v>10</v>
@@ -9255,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J221">
         <v>6.1380061380060003</v>
@@ -9278,10 +9273,10 @@
     </row>
     <row r="222" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C222" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -9290,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="I222" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J222">
         <v>6.1380061380060003</v>
@@ -9313,10 +9308,10 @@
     </row>
     <row r="223" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C223" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D223">
         <v>10</v>
@@ -9325,7 +9320,7 @@
         <v>6</v>
       </c>
       <c r="I223" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J223">
         <v>6.1380061380060003</v>
@@ -9348,10 +9343,10 @@
     </row>
     <row r="224" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C224" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D224">
         <v>10</v>
@@ -9360,7 +9355,7 @@
         <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J224">
         <v>6.1380061380060003</v>
@@ -9383,10 +9378,10 @@
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D225">
         <v>10</v>
@@ -9395,7 +9390,7 @@
         <v>8</v>
       </c>
       <c r="I225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J225">
         <v>6.1380061380060003</v>
@@ -9418,10 +9413,10 @@
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D226">
         <v>10</v>
@@ -9430,7 +9425,7 @@
         <v>9</v>
       </c>
       <c r="I226" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J226">
         <v>6.1380061380060003</v>
@@ -9453,10 +9448,10 @@
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D227">
         <v>10</v>
@@ -9465,7 +9460,7 @@
         <v>10</v>
       </c>
       <c r="I227" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J227">
         <v>0.63360063360060004</v>
@@ -9488,10 +9483,10 @@
     </row>
     <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D228">
         <v>10</v>
@@ -9500,7 +9495,7 @@
         <v>11</v>
       </c>
       <c r="I228" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J228">
         <v>0.63360063360060004</v>
@@ -9523,10 +9518,10 @@
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D229">
         <v>10</v>
@@ -9535,7 +9530,7 @@
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J229">
         <v>0.63360063360060004</v>
@@ -9558,10 +9553,10 @@
     </row>
     <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D230">
         <v>10</v>
@@ -9570,7 +9565,7 @@
         <v>13</v>
       </c>
       <c r="I230" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J230">
         <v>21.087021087019998</v>
@@ -9593,10 +9588,10 @@
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -9605,7 +9600,7 @@
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J231">
         <v>21.087021087019998</v>
@@ -9628,10 +9623,10 @@
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D232">
         <v>10</v>
@@ -9640,7 +9635,7 @@
         <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J232">
         <v>21.087021087019998</v>
@@ -9663,10 +9658,10 @@
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -9675,7 +9670,7 @@
         <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J233">
         <v>0.21780021780020001</v>
@@ -9701,10 +9696,10 @@
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -9713,7 +9708,7 @@
         <v>17</v>
       </c>
       <c r="I234" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J234">
         <v>0.21780021780020001</v>
@@ -9739,10 +9734,10 @@
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D235">
         <v>10</v>
@@ -9751,7 +9746,7 @@
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J235">
         <v>0.21780021780020001</v>
@@ -9777,10 +9772,10 @@
     </row>
     <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D236">
         <v>10</v>
@@ -9789,7 +9784,7 @@
         <v>19</v>
       </c>
       <c r="I236" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J236">
         <v>21.087021087019998</v>
@@ -9812,10 +9807,10 @@
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -9824,7 +9819,7 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J237">
         <v>21.087021087019998</v>
@@ -9847,10 +9842,10 @@
     </row>
     <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D238">
         <v>10</v>
@@ -9859,7 +9854,7 @@
         <v>21</v>
       </c>
       <c r="I238" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J238">
         <v>21.087021087019998</v>
@@ -9882,10 +9877,10 @@
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D239">
         <v>10</v>
@@ -9894,7 +9889,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J239">
         <v>0.33660033660029998</v>
@@ -9917,10 +9912,10 @@
     </row>
     <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D240">
         <v>10</v>
@@ -9929,7 +9924,7 @@
         <v>23</v>
       </c>
       <c r="I240" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J240">
         <v>0.33660033660029998</v>
@@ -9952,10 +9947,10 @@
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D241">
         <v>10</v>
@@ -9964,7 +9959,7 @@
         <v>24</v>
       </c>
       <c r="I241" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -9981,10 +9976,10 @@
     </row>
     <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C242" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D242">
         <v>11</v>
@@ -9993,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J242">
         <v>1.8810018810019999</v>
@@ -10016,10 +10011,10 @@
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D243">
         <v>11</v>
@@ -10028,7 +10023,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J243">
         <v>1.8810018810019999</v>
@@ -10051,10 +10046,10 @@
     </row>
     <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C244" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D244">
         <v>11</v>
@@ -10063,7 +10058,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J244">
         <v>1.8810018810019999</v>
@@ -10086,10 +10081,10 @@
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D245">
         <v>11</v>
@@ -10098,7 +10093,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J245">
         <v>1.8810018810019999</v>
@@ -10121,10 +10116,10 @@
     </row>
     <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D246">
         <v>11</v>
@@ -10133,7 +10128,7 @@
         <v>5</v>
       </c>
       <c r="I246" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J246">
         <v>1.8810018810019999</v>
@@ -10156,10 +10151,10 @@
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D247">
         <v>11</v>
@@ -10168,7 +10163,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J247">
         <v>1.8810018810019999</v>
@@ -10191,10 +10186,10 @@
     </row>
     <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D248">
         <v>11</v>
@@ -10203,7 +10198,7 @@
         <v>7</v>
       </c>
       <c r="I248" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J248">
         <v>1.8810018810019999</v>
@@ -10226,10 +10221,10 @@
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D249">
         <v>11</v>
@@ -10238,7 +10233,7 @@
         <v>8</v>
       </c>
       <c r="I249" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J249">
         <v>1.8810018810019999</v>
@@ -10261,10 +10256,10 @@
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D250">
         <v>11</v>
@@ -10273,7 +10268,7 @@
         <v>9</v>
       </c>
       <c r="I250" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J250">
         <v>1.8810018810019999</v>
@@ -10296,10 +10291,10 @@
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D251">
         <v>11</v>
@@ -10308,7 +10303,7 @@
         <v>10</v>
       </c>
       <c r="I251" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J251">
         <v>0.1980001980002</v>
@@ -10331,10 +10326,10 @@
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C252" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D252">
         <v>11</v>
@@ -10343,7 +10338,7 @@
         <v>11</v>
       </c>
       <c r="I252" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J252">
         <v>0.1980001980002</v>
@@ -10366,10 +10361,10 @@
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -10378,7 +10373,7 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J253">
         <v>0.1980001980002</v>
@@ -10401,10 +10396,10 @@
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D254">
         <v>11</v>
@@ -10413,7 +10408,7 @@
         <v>13</v>
       </c>
       <c r="I254" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J254">
         <v>5.2470052470050002</v>
@@ -10436,10 +10431,10 @@
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D255">
         <v>11</v>
@@ -10448,7 +10443,7 @@
         <v>14</v>
       </c>
       <c r="I255" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J255">
         <v>5.2470052470050002</v>
@@ -10471,10 +10466,10 @@
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C256" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D256">
         <v>11</v>
@@ -10483,7 +10478,7 @@
         <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J256">
         <v>5.2470052470050002</v>
@@ -10506,10 +10501,10 @@
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C257" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D257">
         <v>11</v>
@@ -10518,7 +10513,7 @@
         <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J257">
         <v>7.9200079200080001E-2</v>
@@ -10544,10 +10539,10 @@
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C258" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D258">
         <v>11</v>
@@ -10556,7 +10551,7 @@
         <v>17</v>
       </c>
       <c r="I258" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J258">
         <v>7.9200079200080001E-2</v>
@@ -10582,10 +10577,10 @@
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C259" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D259">
         <v>11</v>
@@ -10594,7 +10589,7 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J259">
         <v>7.9200079200080001E-2</v>
@@ -10620,10 +10615,10 @@
     </row>
     <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D260">
         <v>11</v>
@@ -10632,7 +10627,7 @@
         <v>19</v>
       </c>
       <c r="I260" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J260">
         <v>5.2470052470050002</v>
@@ -10655,10 +10650,10 @@
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D261">
         <v>11</v>
@@ -10667,7 +10662,7 @@
         <v>20</v>
       </c>
       <c r="I261" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J261">
         <v>5.2470052470050002</v>
@@ -10690,10 +10685,10 @@
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -10702,7 +10697,7 @@
         <v>21</v>
       </c>
       <c r="I262" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J262">
         <v>5.2470052470050002</v>
@@ -10725,10 +10720,10 @@
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D263">
         <v>11</v>
@@ -10737,7 +10732,7 @@
         <v>22</v>
       </c>
       <c r="I263" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J263">
         <v>0.1188001188001</v>
@@ -10760,10 +10755,10 @@
     </row>
     <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D264">
         <v>11</v>
@@ -10772,7 +10767,7 @@
         <v>23</v>
       </c>
       <c r="I264" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J264">
         <v>0.1188001188001</v>
@@ -10795,10 +10790,10 @@
     </row>
     <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D265">
         <v>11</v>
@@ -10807,7 +10802,7 @@
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -10824,10 +10819,10 @@
     </row>
     <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D266">
         <v>12</v>
@@ -10836,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J266">
         <v>0.5742005742006</v>
@@ -10859,10 +10854,10 @@
     </row>
     <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C267" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D267">
         <v>12</v>
@@ -10871,7 +10866,7 @@
         <v>2</v>
       </c>
       <c r="I267" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J267">
         <v>0.5742005742006</v>
@@ -10894,10 +10889,10 @@
     </row>
     <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D268">
         <v>12</v>
@@ -10906,7 +10901,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J268">
         <v>0.5742005742006</v>
@@ -10929,10 +10924,10 @@
     </row>
     <row r="269" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -10941,7 +10936,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J269">
         <v>0.5742005742006</v>
@@ -10964,10 +10959,10 @@
     </row>
     <row r="270" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D270">
         <v>12</v>
@@ -10976,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="I270" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J270">
         <v>0.5742005742006</v>
@@ -10999,10 +10994,10 @@
     </row>
     <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D271">
         <v>12</v>
@@ -11011,7 +11006,7 @@
         <v>6</v>
       </c>
       <c r="I271" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J271">
         <v>0.5742005742006</v>
@@ -11034,10 +11029,10 @@
     </row>
     <row r="272" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C272" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D272">
         <v>12</v>
@@ -11046,7 +11041,7 @@
         <v>7</v>
       </c>
       <c r="I272" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J272">
         <v>0.5742005742006</v>
@@ -11069,10 +11064,10 @@
     </row>
     <row r="273" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C273" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -11081,7 +11076,7 @@
         <v>8</v>
       </c>
       <c r="I273" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J273">
         <v>0.5742005742006</v>
@@ -11104,10 +11099,10 @@
     </row>
     <row r="274" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D274">
         <v>12</v>
@@ -11116,7 +11111,7 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J274">
         <v>0.5742005742006</v>
@@ -11139,10 +11134,10 @@
     </row>
     <row r="275" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D275">
         <v>12</v>
@@ -11151,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="I275" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J275">
         <v>6.4350064350059993E-2</v>
@@ -11174,10 +11169,10 @@
     </row>
     <row r="276" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D276">
         <v>12</v>
@@ -11186,7 +11181,7 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J276">
         <v>6.4350064350059993E-2</v>
@@ -11209,10 +11204,10 @@
     </row>
     <row r="277" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D277">
         <v>12</v>
@@ -11221,7 +11216,7 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J277">
         <v>6.4350064350059993E-2</v>
@@ -11244,10 +11239,10 @@
     </row>
     <row r="278" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D278">
         <v>12</v>
@@ -11256,7 +11251,7 @@
         <v>13</v>
       </c>
       <c r="I278" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J278">
         <v>1.2870012870009999</v>
@@ -11279,10 +11274,10 @@
     </row>
     <row r="279" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D279">
         <v>12</v>
@@ -11291,7 +11286,7 @@
         <v>14</v>
       </c>
       <c r="I279" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J279">
         <v>1.2870012870009999</v>
@@ -11314,10 +11309,10 @@
     </row>
     <row r="280" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D280">
         <v>12</v>
@@ -11326,7 +11321,7 @@
         <v>15</v>
       </c>
       <c r="I280" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J280">
         <v>1.2870012870009999</v>
@@ -11349,10 +11344,10 @@
     </row>
     <row r="281" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D281">
         <v>12</v>
@@ -11361,7 +11356,7 @@
         <v>16</v>
       </c>
       <c r="I281" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J281">
         <v>2.8710028710029999E-2</v>
@@ -11387,10 +11382,10 @@
     </row>
     <row r="282" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D282">
         <v>12</v>
@@ -11399,7 +11394,7 @@
         <v>17</v>
       </c>
       <c r="I282" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J282">
         <v>2.8710028710029999E-2</v>
@@ -11425,10 +11420,10 @@
     </row>
     <row r="283" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C283" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D283">
         <v>12</v>
@@ -11437,7 +11432,7 @@
         <v>18</v>
       </c>
       <c r="I283" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J283">
         <v>2.8710028710029999E-2</v>
@@ -11463,10 +11458,10 @@
     </row>
     <row r="284" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C284" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -11475,7 +11470,7 @@
         <v>19</v>
       </c>
       <c r="I284" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J284">
         <v>1.2870012870009999</v>
@@ -11498,10 +11493,10 @@
     </row>
     <row r="285" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C285" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D285">
         <v>12</v>
@@ -11510,7 +11505,7 @@
         <v>20</v>
       </c>
       <c r="I285" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J285">
         <v>1.2870012870009999</v>
@@ -11533,10 +11528,10 @@
     </row>
     <row r="286" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C286" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D286">
         <v>12</v>
@@ -11545,7 +11540,7 @@
         <v>21</v>
       </c>
       <c r="I286" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J286">
         <v>1.2870012870009999</v>
@@ -11568,10 +11563,10 @@
     </row>
     <row r="287" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D287">
         <v>12</v>
@@ -11580,7 +11575,7 @@
         <v>22</v>
       </c>
       <c r="I287" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J287">
         <v>3.8610038610039997E-2</v>
@@ -11603,10 +11598,10 @@
     </row>
     <row r="288" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D288">
         <v>12</v>
@@ -11615,7 +11610,7 @@
         <v>23</v>
       </c>
       <c r="I288" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J288">
         <v>3.8610038610039997E-2</v>
@@ -11638,10 +11633,10 @@
     </row>
     <row r="289" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -11650,7 +11645,7 @@
         <v>24</v>
       </c>
       <c r="I289" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -11667,10 +11662,10 @@
     </row>
     <row r="290" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D290">
         <v>13</v>
@@ -11679,7 +11674,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J290">
         <v>0.17325017325020001</v>
@@ -11702,10 +11697,10 @@
     </row>
     <row r="291" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D291">
         <v>13</v>
@@ -11714,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J291">
         <v>0.17325017325020001</v>
@@ -11737,10 +11732,10 @@
     </row>
     <row r="292" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D292">
         <v>13</v>
@@ -11749,7 +11744,7 @@
         <v>3</v>
       </c>
       <c r="I292" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J292">
         <v>0.17325017325020001</v>
@@ -11772,10 +11767,10 @@
     </row>
     <row r="293" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -11784,7 +11779,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J293">
         <v>0.17325017325020001</v>
@@ -11807,10 +11802,10 @@
     </row>
     <row r="294" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C294" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -11819,7 +11814,7 @@
         <v>5</v>
       </c>
       <c r="I294" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J294">
         <v>0.17325017325020001</v>
@@ -11842,10 +11837,10 @@
     </row>
     <row r="295" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D295">
         <v>13</v>
@@ -11854,7 +11849,7 @@
         <v>6</v>
       </c>
       <c r="I295" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J295">
         <v>0.17325017325020001</v>
@@ -11877,10 +11872,10 @@
     </row>
     <row r="296" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D296">
         <v>13</v>
@@ -11889,7 +11884,7 @@
         <v>7</v>
       </c>
       <c r="I296" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J296">
         <v>0.17325017325020001</v>
@@ -11912,10 +11907,10 @@
     </row>
     <row r="297" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D297">
         <v>13</v>
@@ -11924,7 +11919,7 @@
         <v>8</v>
       </c>
       <c r="I297" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J297">
         <v>0.17325017325020001</v>
@@ -11947,10 +11942,10 @@
     </row>
     <row r="298" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D298">
         <v>13</v>
@@ -11959,7 +11954,7 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J298">
         <v>0.17325017325020001</v>
@@ -11982,10 +11977,10 @@
     </row>
     <row r="299" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D299">
         <v>13</v>
@@ -11994,7 +11989,7 @@
         <v>10</v>
       </c>
       <c r="I299" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J299">
         <v>2.079002079002E-2</v>
@@ -12017,10 +12012,10 @@
     </row>
     <row r="300" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -12029,7 +12024,7 @@
         <v>11</v>
       </c>
       <c r="I300" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J300">
         <v>2.079002079002E-2</v>
@@ -12052,10 +12047,10 @@
     </row>
     <row r="301" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D301">
         <v>13</v>
@@ -12064,7 +12059,7 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J301">
         <v>2.079002079002E-2</v>
@@ -12087,10 +12082,10 @@
     </row>
     <row r="302" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D302">
         <v>13</v>
@@ -12099,7 +12094,7 @@
         <v>13</v>
       </c>
       <c r="I302" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J302">
         <v>0.32670032670030003</v>
@@ -12122,10 +12117,10 @@
     </row>
     <row r="303" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D303">
         <v>13</v>
@@ -12134,7 +12129,7 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J303">
         <v>0.32670032670030003</v>
@@ -12157,10 +12152,10 @@
     </row>
     <row r="304" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D304">
         <v>13</v>
@@ -12169,7 +12164,7 @@
         <v>15</v>
       </c>
       <c r="I304" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J304">
         <v>0.32670032670030003</v>
@@ -12192,10 +12187,10 @@
     </row>
     <row r="305" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D305">
         <v>13</v>
@@ -12204,7 +12199,7 @@
         <v>16</v>
       </c>
       <c r="I305" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J305">
         <v>1.039501039501E-2</v>
@@ -12230,10 +12225,10 @@
     </row>
     <row r="306" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D306">
         <v>13</v>
@@ -12242,7 +12237,7 @@
         <v>17</v>
       </c>
       <c r="I306" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J306">
         <v>1.039501039501E-2</v>
@@ -12268,10 +12263,10 @@
     </row>
     <row r="307" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D307">
         <v>13</v>
@@ -12280,7 +12275,7 @@
         <v>18</v>
       </c>
       <c r="I307" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J307">
         <v>1.039501039501E-2</v>
@@ -12306,10 +12301,10 @@
     </row>
     <row r="308" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -12318,7 +12313,7 @@
         <v>19</v>
       </c>
       <c r="I308" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J308">
         <v>0.32670032670030003</v>
@@ -12341,10 +12336,10 @@
     </row>
     <row r="309" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D309">
         <v>13</v>
@@ -12353,7 +12348,7 @@
         <v>20</v>
       </c>
       <c r="I309" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J309">
         <v>0.32670032670030003</v>
@@ -12376,10 +12371,10 @@
     </row>
     <row r="310" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D310">
         <v>13</v>
@@ -12388,7 +12383,7 @@
         <v>21</v>
       </c>
       <c r="I310" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J310">
         <v>0.32670032670030003</v>
@@ -12411,10 +12406,10 @@
     </row>
     <row r="311" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C311" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D311">
         <v>13</v>
@@ -12423,7 +12418,7 @@
         <v>22</v>
       </c>
       <c r="I311" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J311">
         <v>1.287001287001E-2</v>
@@ -12446,10 +12441,10 @@
     </row>
     <row r="312" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D312">
         <v>13</v>
@@ -12458,7 +12453,7 @@
         <v>23</v>
       </c>
       <c r="I312" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J312">
         <v>1.287001287001E-2</v>
@@ -12481,10 +12476,10 @@
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C313" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D313">
         <v>13</v>
@@ -12493,7 +12488,7 @@
         <v>24</v>
       </c>
       <c r="I313" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -12510,10 +12505,10 @@
     </row>
     <row r="314" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D314">
         <v>14</v>
@@ -12522,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J314">
         <v>5.4450054450050002E-2</v>
@@ -12545,10 +12540,10 @@
     </row>
     <row r="315" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C315" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D315">
         <v>14</v>
@@ -12557,7 +12552,7 @@
         <v>2</v>
       </c>
       <c r="I315" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J315">
         <v>5.4450054450050002E-2</v>
@@ -12580,10 +12575,10 @@
     </row>
     <row r="316" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D316">
         <v>14</v>
@@ -12592,7 +12587,7 @@
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J316">
         <v>5.4450054450050002E-2</v>
@@ -12615,10 +12610,10 @@
     </row>
     <row r="317" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C317" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D317">
         <v>14</v>
@@ -12627,7 +12622,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J317">
         <v>5.4450054450050002E-2</v>
@@ -12650,10 +12645,10 @@
     </row>
     <row r="318" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D318">
         <v>14</v>
@@ -12662,7 +12657,7 @@
         <v>5</v>
       </c>
       <c r="I318" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J318">
         <v>5.4450054450050002E-2</v>
@@ -12685,10 +12680,10 @@
     </row>
     <row r="319" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D319">
         <v>14</v>
@@ -12697,7 +12692,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J319">
         <v>5.4450054450050002E-2</v>
@@ -12720,10 +12715,10 @@
     </row>
     <row r="320" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D320">
         <v>14</v>
@@ -12732,7 +12727,7 @@
         <v>7</v>
       </c>
       <c r="I320" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J320">
         <v>5.4450054450050002E-2</v>
@@ -12755,10 +12750,10 @@
     </row>
     <row r="321" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D321">
         <v>14</v>
@@ -12767,7 +12762,7 @@
         <v>8</v>
       </c>
       <c r="I321" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J321">
         <v>5.4450054450050002E-2</v>
@@ -12790,10 +12785,10 @@
     </row>
     <row r="322" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D322">
         <v>14</v>
@@ -12802,7 +12797,7 @@
         <v>9</v>
       </c>
       <c r="I322" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J322">
         <v>5.4450054450050002E-2</v>
@@ -12825,10 +12820,10 @@
     </row>
     <row r="323" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C323" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -12837,7 +12832,7 @@
         <v>10</v>
       </c>
       <c r="I323" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J323">
         <v>6.9300069300070001E-3</v>
@@ -12860,10 +12855,10 @@
     </row>
     <row r="324" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D324">
         <v>14</v>
@@ -12872,7 +12867,7 @@
         <v>11</v>
       </c>
       <c r="I324" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J324">
         <v>6.9300069300070001E-3</v>
@@ -12895,10 +12890,10 @@
     </row>
     <row r="325" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D325">
         <v>14</v>
@@ -12907,7 +12902,7 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J325">
         <v>6.9300069300070001E-3</v>
@@ -12930,10 +12925,10 @@
     </row>
     <row r="326" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D326">
         <v>14</v>
@@ -12942,7 +12937,7 @@
         <v>13</v>
       </c>
       <c r="I326" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J326">
         <v>7.9200079200080001E-2</v>
@@ -12965,10 +12960,10 @@
     </row>
     <row r="327" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D327">
         <v>14</v>
@@ -12977,7 +12972,7 @@
         <v>14</v>
       </c>
       <c r="I327" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J327">
         <v>7.9200079200080001E-2</v>
@@ -13000,10 +12995,10 @@
     </row>
     <row r="328" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D328">
         <v>14</v>
@@ -13012,7 +13007,7 @@
         <v>15</v>
       </c>
       <c r="I328" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J328">
         <v>7.9200079200080001E-2</v>
@@ -13035,10 +13030,10 @@
     </row>
     <row r="329" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D329">
         <v>14</v>
@@ -13047,7 +13042,7 @@
         <v>16</v>
       </c>
       <c r="I329" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J329">
         <v>3.7125037125040001E-3</v>
@@ -13073,10 +13068,10 @@
     </row>
     <row r="330" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D330">
         <v>14</v>
@@ -13085,7 +13080,7 @@
         <v>17</v>
       </c>
       <c r="I330" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J330">
         <v>3.7125037125040001E-3</v>
@@ -13111,10 +13106,10 @@
     </row>
     <row r="331" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D331">
         <v>14</v>
@@ -13123,7 +13118,7 @@
         <v>18</v>
       </c>
       <c r="I331" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J331">
         <v>3.7125037125040001E-3</v>
@@ -13149,10 +13144,10 @@
     </row>
     <row r="332" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D332">
         <v>14</v>
@@ -13161,7 +13156,7 @@
         <v>19</v>
       </c>
       <c r="I332" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J332">
         <v>7.9200079200080001E-2</v>
@@ -13184,10 +13179,10 @@
     </row>
     <row r="333" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D333">
         <v>14</v>
@@ -13196,7 +13191,7 @@
         <v>20</v>
       </c>
       <c r="I333" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J333">
         <v>7.9200079200080001E-2</v>
@@ -13219,10 +13214,10 @@
     </row>
     <row r="334" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D334">
         <v>14</v>
@@ -13231,7 +13226,7 @@
         <v>21</v>
       </c>
       <c r="I334" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J334">
         <v>7.9200079200080001E-2</v>
@@ -13254,10 +13249,10 @@
     </row>
     <row r="335" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D335">
         <v>14</v>
@@ -13266,7 +13261,7 @@
         <v>22</v>
       </c>
       <c r="I335" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J335">
         <v>4.455004455004E-3</v>
@@ -13289,10 +13284,10 @@
     </row>
     <row r="336" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D336">
         <v>14</v>
@@ -13301,7 +13296,7 @@
         <v>23</v>
       </c>
       <c r="I336" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J336">
         <v>4.455004455004E-3</v>
@@ -13324,10 +13319,10 @@
     </row>
     <row r="337" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D337">
         <v>14</v>
@@ -13336,7 +13331,7 @@
         <v>24</v>
       </c>
       <c r="I337" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -13353,10 +13348,10 @@
     </row>
     <row r="338" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D338">
         <v>15</v>
@@ -13365,7 +13360,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J338">
         <v>1.485001485001E-2</v>
@@ -13388,10 +13383,10 @@
     </row>
     <row r="339" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D339">
         <v>15</v>
@@ -13400,7 +13395,7 @@
         <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J339">
         <v>1.485001485001E-2</v>
@@ -13423,10 +13418,10 @@
     </row>
     <row r="340" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D340">
         <v>15</v>
@@ -13435,7 +13430,7 @@
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J340">
         <v>1.485001485001E-2</v>
@@ -13458,10 +13453,10 @@
     </row>
     <row r="341" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D341">
         <v>15</v>
@@ -13470,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J341">
         <v>1.485001485001E-2</v>
@@ -13493,10 +13488,10 @@
     </row>
     <row r="342" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D342">
         <v>15</v>
@@ -13505,7 +13500,7 @@
         <v>5</v>
       </c>
       <c r="I342" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J342">
         <v>1.485001485001E-2</v>
@@ -13528,10 +13523,10 @@
     </row>
     <row r="343" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D343">
         <v>15</v>
@@ -13540,7 +13535,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J343">
         <v>1.485001485001E-2</v>
@@ -13563,10 +13558,10 @@
     </row>
     <row r="344" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D344">
         <v>15</v>
@@ -13575,7 +13570,7 @@
         <v>7</v>
       </c>
       <c r="I344" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J344">
         <v>1.485001485001E-2</v>
@@ -13598,10 +13593,10 @@
     </row>
     <row r="345" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D345">
         <v>15</v>
@@ -13610,7 +13605,7 @@
         <v>8</v>
       </c>
       <c r="I345" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J345">
         <v>1.485001485001E-2</v>
@@ -13633,10 +13628,10 @@
     </row>
     <row r="346" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D346">
         <v>15</v>
@@ -13645,7 +13640,7 @@
         <v>9</v>
       </c>
       <c r="I346" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J346">
         <v>1.485001485001E-2</v>
@@ -13668,10 +13663,10 @@
     </row>
     <row r="347" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D347">
         <v>15</v>
@@ -13680,7 +13675,7 @@
         <v>10</v>
       </c>
       <c r="I347" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J347">
         <v>1.980001980002E-3</v>
@@ -13703,10 +13698,10 @@
     </row>
     <row r="348" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D348">
         <v>15</v>
@@ -13715,7 +13710,7 @@
         <v>11</v>
       </c>
       <c r="I348" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J348">
         <v>1.980001980002E-3</v>
@@ -13738,10 +13733,10 @@
     </row>
     <row r="349" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C349" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D349">
         <v>15</v>
@@ -13750,7 +13745,7 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J349">
         <v>1.980001980002E-3</v>
@@ -13773,10 +13768,10 @@
     </row>
     <row r="350" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D350">
         <v>15</v>
@@ -13785,7 +13780,7 @@
         <v>13</v>
       </c>
       <c r="I350" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J350">
         <v>1.980001980002E-2</v>
@@ -13808,10 +13803,10 @@
     </row>
     <row r="351" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D351">
         <v>15</v>
@@ -13820,7 +13815,7 @@
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J351">
         <v>1.980001980002E-2</v>
@@ -13843,10 +13838,10 @@
     </row>
     <row r="352" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D352">
         <v>15</v>
@@ -13855,7 +13850,7 @@
         <v>15</v>
       </c>
       <c r="I352" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J352">
         <v>1.980001980002E-2</v>
@@ -13878,10 +13873,10 @@
     </row>
     <row r="353" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D353">
         <v>15</v>
@@ -13890,7 +13885,7 @@
         <v>16</v>
       </c>
       <c r="I353" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J353">
         <v>1.485001485001E-3</v>
@@ -13916,10 +13911,10 @@
     </row>
     <row r="354" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C354" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D354">
         <v>15</v>
@@ -13928,7 +13923,7 @@
         <v>17</v>
       </c>
       <c r="I354" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J354">
         <v>1.485001485001E-3</v>
@@ -13954,10 +13949,10 @@
     </row>
     <row r="355" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C355" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D355">
         <v>15</v>
@@ -13966,7 +13961,7 @@
         <v>18</v>
       </c>
       <c r="I355" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J355">
         <v>1.485001485001E-3</v>
@@ -13992,10 +13987,10 @@
     </row>
     <row r="356" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C356" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D356">
         <v>15</v>
@@ -14004,7 +13999,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J356">
         <v>1.980001980002E-2</v>
@@ -14027,10 +14022,10 @@
     </row>
     <row r="357" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C357" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D357">
         <v>15</v>
@@ -14039,7 +14034,7 @@
         <v>20</v>
       </c>
       <c r="I357" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J357">
         <v>1.980001980002E-2</v>
@@ -14062,10 +14057,10 @@
     </row>
     <row r="358" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D358">
         <v>15</v>
@@ -14074,7 +14069,7 @@
         <v>21</v>
       </c>
       <c r="I358" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J358">
         <v>1.980001980002E-2</v>
@@ -14097,10 +14092,10 @@
     </row>
     <row r="359" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D359">
         <v>15</v>
@@ -14109,7 +14104,7 @@
         <v>22</v>
       </c>
       <c r="I359" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J359">
         <v>1.485001485001E-3</v>
@@ -14132,10 +14127,10 @@
     </row>
     <row r="360" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C360" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D360">
         <v>15</v>
@@ -14144,7 +14139,7 @@
         <v>23</v>
       </c>
       <c r="I360" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J360">
         <v>1.485001485001E-3</v>
@@ -14167,10 +14162,10 @@
     </row>
     <row r="361" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D361">
         <v>15</v>
@@ -14179,7 +14174,7 @@
         <v>24</v>
       </c>
       <c r="I361" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J361">
         <v>0</v>
@@ -14196,10 +14191,10 @@
     </row>
     <row r="362" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C362" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D362">
         <v>16</v>
@@ -14208,7 +14203,7 @@
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J362">
         <v>4.950004950005E-3</v>
@@ -14231,10 +14226,10 @@
     </row>
     <row r="363" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C363" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D363">
         <v>16</v>
@@ -14243,7 +14238,7 @@
         <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J363">
         <v>4.950004950005E-3</v>
@@ -14266,10 +14261,10 @@
     </row>
     <row r="364" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D364">
         <v>16</v>
@@ -14278,7 +14273,7 @@
         <v>3</v>
       </c>
       <c r="I364" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J364">
         <v>4.950004950005E-3</v>
@@ -14301,10 +14296,10 @@
     </row>
     <row r="365" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C365" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D365">
         <v>16</v>
@@ -14313,7 +14308,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J365">
         <v>4.950004950005E-3</v>
@@ -14336,10 +14331,10 @@
     </row>
     <row r="366" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D366">
         <v>16</v>
@@ -14348,7 +14343,7 @@
         <v>5</v>
       </c>
       <c r="I366" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J366">
         <v>4.950004950005E-3</v>
@@ -14371,10 +14366,10 @@
     </row>
     <row r="367" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C367" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D367">
         <v>16</v>
@@ -14383,7 +14378,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J367">
         <v>4.950004950005E-3</v>
@@ -14406,10 +14401,10 @@
     </row>
     <row r="368" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C368" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D368">
         <v>16</v>
@@ -14418,7 +14413,7 @@
         <v>7</v>
       </c>
       <c r="I368" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J368">
         <v>4.950004950005E-3</v>
@@ -14441,10 +14436,10 @@
     </row>
     <row r="369" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C369" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D369">
         <v>16</v>
@@ -14453,7 +14448,7 @@
         <v>8</v>
       </c>
       <c r="I369" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J369">
         <v>4.950004950005E-3</v>
@@ -14476,10 +14471,10 @@
     </row>
     <row r="370" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D370">
         <v>16</v>
@@ -14488,7 +14483,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J370">
         <v>4.950004950005E-3</v>
@@ -14511,10 +14506,10 @@
     </row>
     <row r="371" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C371" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D371">
         <v>16</v>
@@ -14523,7 +14518,7 @@
         <v>10</v>
       </c>
       <c r="I371" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J371">
         <v>6.435006435006E-4</v>
@@ -14546,10 +14541,10 @@
     </row>
     <row r="372" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C372" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D372">
         <v>16</v>
@@ -14558,7 +14553,7 @@
         <v>11</v>
       </c>
       <c r="I372" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J372">
         <v>6.435006435006E-4</v>
@@ -14581,10 +14576,10 @@
     </row>
     <row r="373" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C373" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D373">
         <v>16</v>
@@ -14593,7 +14588,7 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J373">
         <v>6.435006435006E-4</v>
@@ -14616,10 +14611,10 @@
     </row>
     <row r="374" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C374" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D374">
         <v>16</v>
@@ -14628,7 +14623,7 @@
         <v>13</v>
       </c>
       <c r="I374" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J374">
         <v>4.950004950005E-3</v>
@@ -14651,10 +14646,10 @@
     </row>
     <row r="375" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C375" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D375">
         <v>16</v>
@@ -14663,7 +14658,7 @@
         <v>14</v>
       </c>
       <c r="I375" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J375">
         <v>4.950004950005E-3</v>
@@ -14686,10 +14681,10 @@
     </row>
     <row r="376" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C376" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D376">
         <v>16</v>
@@ -14698,7 +14693,7 @@
         <v>15</v>
       </c>
       <c r="I376" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J376">
         <v>4.950004950005E-3</v>
@@ -14721,10 +14716,10 @@
     </row>
     <row r="377" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C377" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D377">
         <v>16</v>
@@ -14733,7 +14728,7 @@
         <v>16</v>
       </c>
       <c r="I377" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J377">
         <v>4.950004950005E-4</v>
@@ -14759,10 +14754,10 @@
     </row>
     <row r="378" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C378" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D378">
         <v>16</v>
@@ -14771,7 +14766,7 @@
         <v>17</v>
       </c>
       <c r="I378" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J378">
         <v>4.950004950005E-4</v>
@@ -14797,10 +14792,10 @@
     </row>
     <row r="379" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C379" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D379">
         <v>16</v>
@@ -14809,7 +14804,7 @@
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J379">
         <v>4.950004950005E-4</v>
@@ -14835,10 +14830,10 @@
     </row>
     <row r="380" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C380" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D380">
         <v>16</v>
@@ -14847,7 +14842,7 @@
         <v>19</v>
       </c>
       <c r="I380" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J380">
         <v>4.950004950005E-3</v>
@@ -14870,10 +14865,10 @@
     </row>
     <row r="381" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C381" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D381">
         <v>16</v>
@@ -14882,7 +14877,7 @@
         <v>20</v>
       </c>
       <c r="I381" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J381">
         <v>4.950004950005E-3</v>
@@ -14905,10 +14900,10 @@
     </row>
     <row r="382" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C382" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D382">
         <v>16</v>
@@ -14917,7 +14912,7 @@
         <v>21</v>
       </c>
       <c r="I382" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J382">
         <v>4.950004950005E-3</v>
@@ -14940,10 +14935,10 @@
     </row>
     <row r="383" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C383" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D383">
         <v>16</v>
@@ -14952,7 +14947,7 @@
         <v>22</v>
       </c>
       <c r="I383" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J383">
         <v>4.950004950005E-4</v>
@@ -14975,10 +14970,10 @@
     </row>
     <row r="384" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C384" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D384">
         <v>16</v>
@@ -14987,7 +14982,7 @@
         <v>23</v>
       </c>
       <c r="I384" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J384">
         <v>4.950004950005E-4</v>
@@ -15010,10 +15005,10 @@
     </row>
     <row r="385" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C385" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D385">
         <v>16</v>
@@ -15022,7 +15017,7 @@
         <v>24</v>
       </c>
       <c r="I385" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J385">
         <v>0</v>

--- a/resources/FullscreenV2_inverted.xlsx
+++ b/resources/FullscreenV2_inverted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhuismans/surfdrive/Promotie/12. STRATEGIC/Analyse 2.0/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1C9CF-2B66-7742-BBA0-0DCFA3F91060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B14DED-9368-3A44-9DF2-9B3300209EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36200" yWindow="500" windowWidth="35060" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="428">
   <si>
     <t>Organoid</t>
   </si>
@@ -41,18 +41,6 @@
     <t>Timepoint</t>
   </si>
   <si>
-    <t>Dispensed
-well</t>
-  </si>
-  <si>
-    <t>Dispensed
-row</t>
-  </si>
-  <si>
-    <t>Dispensed
-col</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -68,15 +56,9 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>conc_5-FU</t>
-  </si>
-  <si>
     <t>conc_Oxaliplatin</t>
   </si>
   <si>
-    <t>conc_SN-38</t>
-  </si>
-  <si>
     <t>conc_Lapatinib</t>
   </si>
   <si>
@@ -1313,10 +1295,30 @@
     <t>conc_condition</t>
   </si>
   <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>DMSO_pct</t>
+  </si>
+  <si>
+    <t>Dispensed_well</t>
+  </si>
+  <si>
+    <t>Dispensed_row</t>
+  </si>
+  <si>
+    <t>Dispensed_col</t>
+  </si>
+  <si>
+    <t>conc_5FU</t>
+  </si>
+  <si>
+    <t>conc_SN38</t>
+  </si>
+  <si>
+    <t>Volume (nL)
+DMSO normalization</t>
+  </si>
+  <si>
+    <t>Volume (nL)
+a+Tw normalization</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1656,7 @@
   <dimension ref="A1:X385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:X1"/>
+      <selection sqref="A1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1667,81 +1669,81 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" t="s">
+        <v>427</v>
+      </c>
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>425</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
       <c r="X1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1759,7 +1761,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1767,10 +1769,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1779,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1796,10 +1798,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1808,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>10000.224713150001</v>
@@ -1831,10 +1833,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1843,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <v>10000.224713150001</v>
@@ -1866,10 +1868,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1878,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>10000.224713150001</v>
@@ -1901,10 +1903,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1913,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>1500.058</v>
@@ -1936,10 +1938,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1948,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J8">
         <v>1500.058</v>
@@ -1968,10 +1970,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1980,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>1500.058</v>
@@ -2000,10 +2002,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2012,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>1.999801999802</v>
@@ -2032,10 +2034,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2044,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>1.999801999802</v>
@@ -2067,10 +2069,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2079,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>1.999801999802</v>
@@ -2102,10 +2104,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2114,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J13">
         <v>19.998019998019998</v>
@@ -2137,10 +2139,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2149,7 +2151,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <v>19.998019998019998</v>
@@ -2172,10 +2174,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2184,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <v>19.998019998019998</v>
@@ -2207,10 +2209,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2219,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>19.998019998019998</v>
@@ -2242,10 +2244,10 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2254,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>19.998019998019998</v>
@@ -2277,10 +2279,10 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2289,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>19.998019998019998</v>
@@ -2312,10 +2314,10 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2324,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>19.998019998019998</v>
@@ -2347,10 +2349,10 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2359,7 +2361,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>19.998019998019998</v>
@@ -2382,10 +2384,10 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2394,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>19.998019998019998</v>
@@ -2417,10 +2419,10 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2429,7 +2431,7 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>0.59895059895059999</v>
@@ -2452,10 +2454,10 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2464,7 +2466,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>0.59895059895059999</v>
@@ -2487,10 +2489,10 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2499,7 +2501,7 @@
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>0.59895059895059999</v>
@@ -2522,10 +2524,10 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2534,7 +2536,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>0.99990099990100001</v>
@@ -2557,10 +2559,10 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2569,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2577,10 +2579,10 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2589,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2606,10 +2608,10 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2618,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>2213.094792586</v>
@@ -2641,10 +2643,10 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2653,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J29">
         <v>2213.094792586</v>
@@ -2676,10 +2678,10 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2688,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J30">
         <v>2213.094792586</v>
@@ -2711,10 +2713,10 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2723,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J31">
         <v>379.69358</v>
@@ -2746,10 +2748,10 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2758,7 +2760,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J32">
         <v>379.69358</v>
@@ -2781,10 +2783,10 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2793,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J33">
         <v>379.69358</v>
@@ -2816,10 +2818,10 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2828,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J34">
         <v>0.63360063360060004</v>
@@ -2851,10 +2853,10 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2863,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J35">
         <v>0.63360063360060004</v>
@@ -2886,10 +2888,10 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2898,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J36">
         <v>0.63360063360060004</v>
@@ -2921,10 +2923,10 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2933,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J37">
         <v>6.1380061380060003</v>
@@ -2956,10 +2958,10 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2968,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J38">
         <v>6.1380061380060003</v>
@@ -2991,10 +2993,10 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3003,7 +3005,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J39">
         <v>6.1380061380060003</v>
@@ -3026,10 +3028,10 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3038,7 +3040,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>6.1380061380060003</v>
@@ -3061,10 +3063,10 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3073,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J41">
         <v>6.1380061380060003</v>
@@ -3096,10 +3098,10 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3108,7 +3110,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J42">
         <v>6.1380061380060003</v>
@@ -3131,10 +3133,10 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3143,7 +3145,7 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>6.1380061380060003</v>
@@ -3166,10 +3168,10 @@
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3178,7 +3180,7 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>6.1380061380060003</v>
@@ -3201,10 +3203,10 @@
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3213,7 +3215,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J45">
         <v>6.1380061380060003</v>
@@ -3236,10 +3238,10 @@
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3248,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>0.21780021780020001</v>
@@ -3271,10 +3273,10 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3283,7 +3285,7 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J47">
         <v>0.21780021780020001</v>
@@ -3306,10 +3308,10 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3318,7 +3320,7 @@
         <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>0.21780021780020001</v>
@@ -3341,10 +3343,10 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3353,7 +3355,7 @@
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>0.33660033660029998</v>
@@ -3376,10 +3378,10 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3388,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3396,10 +3398,10 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3408,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3425,10 +3427,10 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3437,7 +3439,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J52">
         <v>489.5045013239</v>
@@ -3460,10 +3462,10 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3472,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J53">
         <v>489.5045013239</v>
@@ -3495,10 +3497,10 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3507,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J54">
         <v>489.5045013239</v>
@@ -3530,10 +3532,10 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3542,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J55">
         <v>96.196380000000005</v>
@@ -3565,10 +3567,10 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3577,7 +3579,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J56">
         <v>96.196380000000005</v>
@@ -3600,10 +3602,10 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3612,7 +3614,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J57">
         <v>96.196380000000005</v>
@@ -3635,10 +3637,10 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3647,7 +3649,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J58">
         <v>0.1980001980002</v>
@@ -3670,10 +3672,10 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3682,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J59">
         <v>0.1980001980002</v>
@@ -3705,10 +3707,10 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3717,7 +3719,7 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J60">
         <v>0.1980001980002</v>
@@ -3740,10 +3742,10 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3752,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J61">
         <v>1.8810018810019999</v>
@@ -3775,10 +3777,10 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3787,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J62">
         <v>1.8810018810019999</v>
@@ -3810,10 +3812,10 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3822,7 +3824,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J63">
         <v>1.8810018810019999</v>
@@ -3845,10 +3847,10 @@
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3857,7 +3859,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J64">
         <v>1.8810018810019999</v>
@@ -3880,10 +3882,10 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3892,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>1.8810018810019999</v>
@@ -3915,10 +3917,10 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3927,7 +3929,7 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>1.8810018810019999</v>
@@ -3950,10 +3952,10 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3962,7 +3964,7 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>1.8810018810019999</v>
@@ -3985,10 +3987,10 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3997,7 +3999,7 @@
         <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J68">
         <v>1.8810018810019999</v>
@@ -4020,10 +4022,10 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -4032,7 +4034,7 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J69">
         <v>1.8810018810019999</v>
@@ -4055,10 +4057,10 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4067,7 +4069,7 @@
         <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J70">
         <v>7.9200079200080001E-2</v>
@@ -4090,10 +4092,10 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4102,7 +4104,7 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J71">
         <v>7.9200079200080001E-2</v>
@@ -4125,10 +4127,10 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4137,7 +4139,7 @@
         <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>7.9200079200080001E-2</v>
@@ -4160,10 +4162,10 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4172,7 +4174,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J73">
         <v>0.1188001188001</v>
@@ -4195,10 +4197,10 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4207,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4215,10 +4217,10 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4227,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4244,10 +4246,10 @@
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4256,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J76">
         <v>108.1039717564</v>
@@ -4279,10 +4281,10 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4291,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J77">
         <v>108.1039717564</v>
@@ -4314,10 +4316,10 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4326,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J78">
         <v>108.1039717564</v>
@@ -4349,10 +4351,10 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -4361,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J79">
         <v>24.358740000000001</v>
@@ -4384,10 +4386,10 @@
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -4396,7 +4398,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J80">
         <v>24.358740000000001</v>
@@ -4419,10 +4421,10 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -4431,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J81">
         <v>24.358740000000001</v>
@@ -4454,10 +4456,10 @@
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -4466,7 +4468,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J82">
         <v>6.4350064350059993E-2</v>
@@ -4489,10 +4491,10 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -4501,7 +4503,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J83">
         <v>6.4350064350059993E-2</v>
@@ -4524,10 +4526,10 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -4536,7 +4538,7 @@
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J84">
         <v>6.4350064350059993E-2</v>
@@ -4559,10 +4561,10 @@
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -4571,7 +4573,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J85">
         <v>0.5742005742006</v>
@@ -4594,10 +4596,10 @@
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -4606,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J86">
         <v>0.5742005742006</v>
@@ -4629,10 +4631,10 @@
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4641,7 +4643,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J87">
         <v>0.5742005742006</v>
@@ -4664,10 +4666,10 @@
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -4676,7 +4678,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>0.5742005742006</v>
@@ -4699,10 +4701,10 @@
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -4711,7 +4713,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>0.5742005742006</v>
@@ -4734,10 +4736,10 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -4746,7 +4748,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J90">
         <v>0.5742005742006</v>
@@ -4769,10 +4771,10 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -4781,7 +4783,7 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J91">
         <v>0.5742005742006</v>
@@ -4804,10 +4806,10 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -4816,7 +4818,7 @@
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J92">
         <v>0.5742005742006</v>
@@ -4839,10 +4841,10 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -4851,7 +4853,7 @@
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>0.5742005742006</v>
@@ -4874,10 +4876,10 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4886,7 +4888,7 @@
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J94">
         <v>2.8710028710029999E-2</v>
@@ -4909,10 +4911,10 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4921,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J95">
         <v>2.8710028710029999E-2</v>
@@ -4944,10 +4946,10 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -4956,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J96">
         <v>2.8710028710029999E-2</v>
@@ -4979,10 +4981,10 @@
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -4991,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>3.8610038610039997E-2</v>
@@ -5014,10 +5016,10 @@
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -5026,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5034,10 +5036,10 @@
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -5046,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5063,10 +5065,10 @@
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -5075,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J100">
         <v>24.293244185980001</v>
@@ -5098,10 +5100,10 @@
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -5110,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J101">
         <v>24.293244185980001</v>
@@ -5133,10 +5135,10 @@
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5145,7 +5147,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J102">
         <v>24.293244185980001</v>
@@ -5168,10 +5170,10 @@
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -5180,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J103">
         <v>6.192706084668</v>
@@ -5203,10 +5205,10 @@
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -5215,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J104">
         <v>6.192706084668</v>
@@ -5238,10 +5240,10 @@
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -5250,7 +5252,7 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J105">
         <v>6.192706084668</v>
@@ -5273,10 +5275,10 @@
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -5285,7 +5287,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J106">
         <v>2.079002079002E-2</v>
@@ -5308,10 +5310,10 @@
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -5320,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J107">
         <v>2.079002079002E-2</v>
@@ -5343,10 +5345,10 @@
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -5355,7 +5357,7 @@
         <v>11</v>
       </c>
       <c r="I108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J108">
         <v>2.079002079002E-2</v>
@@ -5378,10 +5380,10 @@
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -5390,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J109">
         <v>0.17325017325020001</v>
@@ -5413,10 +5415,10 @@
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -5425,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J110">
         <v>0.17325017325020001</v>
@@ -5448,10 +5450,10 @@
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -5460,7 +5462,7 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J111">
         <v>0.17325017325020001</v>
@@ -5483,10 +5485,10 @@
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -5495,7 +5497,7 @@
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J112">
         <v>0.17325017325020001</v>
@@ -5518,10 +5520,10 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -5530,7 +5532,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J113">
         <v>0.17325017325020001</v>
@@ -5553,10 +5555,10 @@
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -5565,7 +5567,7 @@
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J114">
         <v>0.17325017325020001</v>
@@ -5588,10 +5590,10 @@
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -5600,7 +5602,7 @@
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J115">
         <v>0.17325017325020001</v>
@@ -5623,10 +5625,10 @@
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -5635,7 +5637,7 @@
         <v>19</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>0.17325017325020001</v>
@@ -5658,10 +5660,10 @@
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -5670,7 +5672,7 @@
         <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J117">
         <v>0.17325017325020001</v>
@@ -5693,10 +5695,10 @@
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -5705,7 +5707,7 @@
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>1.039501039501E-2</v>
@@ -5728,10 +5730,10 @@
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -5740,7 +5742,7 @@
         <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J119">
         <v>1.039501039501E-2</v>
@@ -5763,10 +5765,10 @@
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -5775,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J120">
         <v>1.039501039501E-2</v>
@@ -5798,10 +5800,10 @@
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -5810,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>1.287001287001E-2</v>
@@ -5833,10 +5835,10 @@
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5845,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5853,10 +5855,10 @@
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -5865,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5882,10 +5884,10 @@
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D124">
         <v>6</v>
@@ -5894,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J124">
         <v>5.2969257986829996</v>
@@ -5917,10 +5919,10 @@
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5929,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J125">
         <v>5.2969257986829996</v>
@@ -5952,10 +5954,10 @@
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D126">
         <v>6</v>
@@ -5964,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J126">
         <v>5.2969257986829996</v>
@@ -5987,10 +5989,10 @@
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -5999,7 +6001,7 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J127">
         <v>1.5138539831090001</v>
@@ -6022,10 +6024,10 @@
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -6034,7 +6036,7 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J128">
         <v>1.5138539831090001</v>
@@ -6057,10 +6059,10 @@
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -6069,7 +6071,7 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J129">
         <v>1.5138539831090001</v>
@@ -6092,10 +6094,10 @@
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -6104,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J130">
         <v>6.9300069300070001E-3</v>
@@ -6127,10 +6129,10 @@
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -6139,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J131">
         <v>6.9300069300070001E-3</v>
@@ -6162,10 +6164,10 @@
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -6174,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="I132" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J132">
         <v>6.9300069300070001E-3</v>
@@ -6197,10 +6199,10 @@
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -6209,7 +6211,7 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J133">
         <v>5.4450054450050002E-2</v>
@@ -6232,10 +6234,10 @@
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6244,7 +6246,7 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J134">
         <v>5.4450054450050002E-2</v>
@@ -6267,10 +6269,10 @@
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6279,7 +6281,7 @@
         <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J135">
         <v>5.4450054450050002E-2</v>
@@ -6302,10 +6304,10 @@
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -6314,7 +6316,7 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>5.4450054450050002E-2</v>
@@ -6337,10 +6339,10 @@
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6349,7 +6351,7 @@
         <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J137">
         <v>5.4450054450050002E-2</v>
@@ -6372,10 +6374,10 @@
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6384,7 +6386,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J138">
         <v>5.4450054450050002E-2</v>
@@ -6407,10 +6409,10 @@
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -6419,7 +6421,7 @@
         <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>5.4450054450050002E-2</v>
@@ -6442,10 +6444,10 @@
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -6454,7 +6456,7 @@
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>5.4450054450050002E-2</v>
@@ -6477,10 +6479,10 @@
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -6489,7 +6491,7 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>5.4450054450050002E-2</v>
@@ -6512,10 +6514,10 @@
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -6524,7 +6526,7 @@
         <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>3.7125037125040001E-3</v>
@@ -6547,10 +6549,10 @@
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -6559,7 +6561,7 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J143">
         <v>3.7125037125040001E-3</v>
@@ -6582,10 +6584,10 @@
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -6594,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J144">
         <v>3.7125037125040001E-3</v>
@@ -6617,10 +6619,10 @@
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6629,7 +6631,7 @@
         <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>4.455004455004E-3</v>
@@ -6652,10 +6654,10 @@
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -6664,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6672,10 +6674,10 @@
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6684,7 +6686,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6701,10 +6703,10 @@
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -6713,7 +6715,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J148">
         <v>1.1691476766310001</v>
@@ -6736,10 +6738,10 @@
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -6748,7 +6750,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J149">
         <v>1.1691476766310001</v>
@@ -6771,10 +6773,10 @@
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -6783,7 +6785,7 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J150">
         <v>1.1691476766310001</v>
@@ -6806,10 +6808,10 @@
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -6818,7 +6820,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J151">
         <v>0.39468873208049998</v>
@@ -6841,10 +6843,10 @@
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -6853,7 +6855,7 @@
         <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J152">
         <v>0.39468873208049998</v>
@@ -6876,10 +6878,10 @@
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -6888,7 +6890,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J153">
         <v>0.39468873208049998</v>
@@ -6911,10 +6913,10 @@
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -6923,7 +6925,7 @@
         <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J154">
         <v>1.980001980002E-3</v>
@@ -6946,10 +6948,10 @@
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -6958,7 +6960,7 @@
         <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J155">
         <v>1.980001980002E-3</v>
@@ -6981,10 +6983,10 @@
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -6993,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="I156" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J156">
         <v>1.980001980002E-3</v>
@@ -7016,10 +7018,10 @@
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -7028,7 +7030,7 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J157">
         <v>1.485001485001E-2</v>
@@ -7051,10 +7053,10 @@
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -7063,7 +7065,7 @@
         <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J158">
         <v>1.485001485001E-2</v>
@@ -7086,10 +7088,10 @@
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -7098,7 +7100,7 @@
         <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J159">
         <v>1.485001485001E-2</v>
@@ -7121,10 +7123,10 @@
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D160">
         <v>7</v>
@@ -7133,7 +7135,7 @@
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J160">
         <v>1.485001485001E-2</v>
@@ -7156,10 +7158,10 @@
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D161">
         <v>7</v>
@@ -7168,7 +7170,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>1.485001485001E-2</v>
@@ -7191,10 +7193,10 @@
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -7203,7 +7205,7 @@
         <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J162">
         <v>1.485001485001E-2</v>
@@ -7226,10 +7228,10 @@
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -7238,7 +7240,7 @@
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>1.485001485001E-2</v>
@@ -7261,10 +7263,10 @@
     </row>
     <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -7273,7 +7275,7 @@
         <v>19</v>
       </c>
       <c r="I164" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J164">
         <v>1.485001485001E-2</v>
@@ -7296,10 +7298,10 @@
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -7308,7 +7310,7 @@
         <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J165">
         <v>1.485001485001E-2</v>
@@ -7331,10 +7333,10 @@
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7343,7 +7345,7 @@
         <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J166">
         <v>1.485001485001E-3</v>
@@ -7366,10 +7368,10 @@
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -7378,7 +7380,7 @@
         <v>22</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J167">
         <v>1.485001485001E-3</v>
@@ -7401,10 +7403,10 @@
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -7413,7 +7415,7 @@
         <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J168">
         <v>1.485001485001E-3</v>
@@ -7436,10 +7438,10 @@
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D169">
         <v>7</v>
@@ -7448,7 +7450,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J169">
         <v>1.485001485001E-3</v>
@@ -7471,10 +7473,10 @@
     </row>
     <row r="170" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D170">
         <v>8</v>
@@ -7483,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7491,10 +7493,10 @@
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D171">
         <v>8</v>
@@ -7503,7 +7505,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7520,10 +7522,10 @@
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D172">
         <v>8</v>
@@ -7532,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J172">
         <v>0.26246204112589999</v>
@@ -7555,10 +7557,10 @@
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D173">
         <v>8</v>
@@ -7567,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J173">
         <v>0.26246204112589999</v>
@@ -7590,10 +7592,10 @@
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -7602,7 +7604,7 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J174">
         <v>0.26246204112589999</v>
@@ -7625,10 +7627,10 @@
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D175">
         <v>8</v>
@@ -7637,7 +7639,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J175">
         <v>0.1000242014463</v>
@@ -7660,10 +7662,10 @@
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D176">
         <v>8</v>
@@ -7672,7 +7674,7 @@
         <v>7</v>
       </c>
       <c r="I176" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J176">
         <v>0.1000242014463</v>
@@ -7695,10 +7697,10 @@
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D177">
         <v>8</v>
@@ -7707,7 +7709,7 @@
         <v>8</v>
       </c>
       <c r="I177" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J177">
         <v>0.1000242014463</v>
@@ -7730,10 +7732,10 @@
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D178">
         <v>8</v>
@@ -7742,7 +7744,7 @@
         <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J178">
         <v>6.435006435006E-4</v>
@@ -7765,10 +7767,10 @@
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -7777,7 +7779,7 @@
         <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J179">
         <v>6.435006435006E-4</v>
@@ -7800,10 +7802,10 @@
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -7812,7 +7814,7 @@
         <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J180">
         <v>6.435006435006E-4</v>
@@ -7835,10 +7837,10 @@
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D181">
         <v>8</v>
@@ -7847,7 +7849,7 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J181">
         <v>4.950004950005E-3</v>
@@ -7870,10 +7872,10 @@
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -7882,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J182">
         <v>4.950004950005E-3</v>
@@ -7905,10 +7907,10 @@
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -7917,7 +7919,7 @@
         <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J183">
         <v>4.950004950005E-3</v>
@@ -7940,10 +7942,10 @@
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -7952,7 +7954,7 @@
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J184">
         <v>4.950004950005E-3</v>
@@ -7975,10 +7977,10 @@
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D185">
         <v>8</v>
@@ -7987,7 +7989,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J185">
         <v>4.950004950005E-3</v>
@@ -8010,10 +8012,10 @@
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D186">
         <v>8</v>
@@ -8022,7 +8024,7 @@
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J186">
         <v>4.950004950005E-3</v>
@@ -8045,10 +8047,10 @@
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D187">
         <v>8</v>
@@ -8057,7 +8059,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J187">
         <v>4.950004950005E-3</v>
@@ -8080,10 +8082,10 @@
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D188">
         <v>8</v>
@@ -8092,7 +8094,7 @@
         <v>19</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J188">
         <v>4.950004950005E-3</v>
@@ -8115,10 +8117,10 @@
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -8127,7 +8129,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J189">
         <v>4.950004950005E-3</v>
@@ -8150,10 +8152,10 @@
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D190">
         <v>8</v>
@@ -8162,7 +8164,7 @@
         <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J190">
         <v>4.950004950005E-4</v>
@@ -8185,10 +8187,10 @@
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D191">
         <v>8</v>
@@ -8197,7 +8199,7 @@
         <v>22</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>4.950004950005E-4</v>
@@ -8220,10 +8222,10 @@
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D192">
         <v>8</v>
@@ -8232,7 +8234,7 @@
         <v>23</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J192">
         <v>4.950004950005E-4</v>
@@ -8255,10 +8257,10 @@
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -8267,7 +8269,7 @@
         <v>24</v>
       </c>
       <c r="I193" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>4.950004950005E-4</v>
@@ -8290,10 +8292,10 @@
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -8302,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J194">
         <v>19.998019998019998</v>
@@ -8325,10 +8327,10 @@
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D195">
         <v>9</v>
@@ -8337,7 +8339,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J195">
         <v>19.998019998019998</v>
@@ -8360,10 +8362,10 @@
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -8372,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J196">
         <v>19.998019998019998</v>
@@ -8395,10 +8397,10 @@
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -8407,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J197">
         <v>19.998019998019998</v>
@@ -8430,10 +8432,10 @@
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D198">
         <v>9</v>
@@ -8442,7 +8444,7 @@
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J198">
         <v>19.998019998019998</v>
@@ -8465,10 +8467,10 @@
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -8477,7 +8479,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J199">
         <v>19.998019998019998</v>
@@ -8500,10 +8502,10 @@
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D200">
         <v>9</v>
@@ -8512,7 +8514,7 @@
         <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J200">
         <v>19.998019998019998</v>
@@ -8535,10 +8537,10 @@
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D201">
         <v>9</v>
@@ -8547,7 +8549,7 @@
         <v>8</v>
       </c>
       <c r="I201" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J201">
         <v>19.998019998019998</v>
@@ -8570,10 +8572,10 @@
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -8582,7 +8584,7 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J202">
         <v>19.998019998019998</v>
@@ -8605,10 +8607,10 @@
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D203">
         <v>9</v>
@@ -8617,7 +8619,7 @@
         <v>10</v>
       </c>
       <c r="I203" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J203">
         <v>1.999801999802</v>
@@ -8640,10 +8642,10 @@
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D204">
         <v>9</v>
@@ -8652,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J204">
         <v>1.999801999802</v>
@@ -8675,10 +8677,10 @@
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D205">
         <v>9</v>
@@ -8687,7 +8689,7 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J205">
         <v>1.999801999802</v>
@@ -8710,10 +8712,10 @@
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D206">
         <v>9</v>
@@ -8722,7 +8724,7 @@
         <v>13</v>
       </c>
       <c r="I206" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J206">
         <v>85.041000850410001</v>
@@ -8745,10 +8747,10 @@
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -8757,7 +8759,7 @@
         <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J207">
         <v>85.041000850410001</v>
@@ -8780,10 +8782,10 @@
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D208">
         <v>9</v>
@@ -8792,7 +8794,7 @@
         <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J208">
         <v>85.041000850410001</v>
@@ -8815,10 +8817,10 @@
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D209">
         <v>9</v>
@@ -8827,7 +8829,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J209">
         <v>0.59895059895059999</v>
@@ -8853,10 +8855,10 @@
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -8865,7 +8867,7 @@
         <v>17</v>
       </c>
       <c r="I210" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J210">
         <v>0.59895059895059999</v>
@@ -8891,10 +8893,10 @@
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D211">
         <v>9</v>
@@ -8903,7 +8905,7 @@
         <v>18</v>
       </c>
       <c r="I211" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J211">
         <v>0.59895059895059999</v>
@@ -8929,10 +8931,10 @@
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D212">
         <v>9</v>
@@ -8941,7 +8943,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J212">
         <v>85.04108504109</v>
@@ -8964,10 +8966,10 @@
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -8976,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J213">
         <v>85.04108504109</v>
@@ -8999,10 +9001,10 @@
     </row>
     <row r="214" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D214">
         <v>9</v>
@@ -9011,7 +9013,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J214">
         <v>85.04108504109</v>
@@ -9034,10 +9036,10 @@
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D215">
         <v>9</v>
@@ -9046,7 +9048,7 @@
         <v>22</v>
       </c>
       <c r="I215" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>0.99990099990100001</v>
@@ -9069,10 +9071,10 @@
     </row>
     <row r="216" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D216">
         <v>9</v>
@@ -9081,7 +9083,7 @@
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J216">
         <v>0.99990099990100001</v>
@@ -9104,10 +9106,10 @@
     </row>
     <row r="217" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -9116,7 +9118,7 @@
         <v>24</v>
       </c>
       <c r="I217" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -9133,10 +9135,10 @@
     </row>
     <row r="218" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D218">
         <v>10</v>
@@ -9145,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J218">
         <v>6.1380061380060003</v>
@@ -9168,10 +9170,10 @@
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D219">
         <v>10</v>
@@ -9180,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J219">
         <v>6.1380061380060003</v>
@@ -9203,10 +9205,10 @@
     </row>
     <row r="220" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D220">
         <v>10</v>
@@ -9215,7 +9217,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J220">
         <v>6.1380061380060003</v>
@@ -9238,10 +9240,10 @@
     </row>
     <row r="221" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D221">
         <v>10</v>
@@ -9250,7 +9252,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J221">
         <v>6.1380061380060003</v>
@@ -9273,10 +9275,10 @@
     </row>
     <row r="222" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -9285,7 +9287,7 @@
         <v>5</v>
       </c>
       <c r="I222" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J222">
         <v>6.1380061380060003</v>
@@ -9308,10 +9310,10 @@
     </row>
     <row r="223" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D223">
         <v>10</v>
@@ -9320,7 +9322,7 @@
         <v>6</v>
       </c>
       <c r="I223" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J223">
         <v>6.1380061380060003</v>
@@ -9343,10 +9345,10 @@
     </row>
     <row r="224" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D224">
         <v>10</v>
@@ -9355,7 +9357,7 @@
         <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J224">
         <v>6.1380061380060003</v>
@@ -9378,10 +9380,10 @@
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D225">
         <v>10</v>
@@ -9390,7 +9392,7 @@
         <v>8</v>
       </c>
       <c r="I225" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J225">
         <v>6.1380061380060003</v>
@@ -9413,10 +9415,10 @@
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D226">
         <v>10</v>
@@ -9425,7 +9427,7 @@
         <v>9</v>
       </c>
       <c r="I226" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J226">
         <v>6.1380061380060003</v>
@@ -9448,10 +9450,10 @@
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D227">
         <v>10</v>
@@ -9460,7 +9462,7 @@
         <v>10</v>
       </c>
       <c r="I227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J227">
         <v>0.63360063360060004</v>
@@ -9483,10 +9485,10 @@
     </row>
     <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D228">
         <v>10</v>
@@ -9495,7 +9497,7 @@
         <v>11</v>
       </c>
       <c r="I228" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J228">
         <v>0.63360063360060004</v>
@@ -9518,10 +9520,10 @@
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D229">
         <v>10</v>
@@ -9530,7 +9532,7 @@
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J229">
         <v>0.63360063360060004</v>
@@ -9553,10 +9555,10 @@
     </row>
     <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D230">
         <v>10</v>
@@ -9565,7 +9567,7 @@
         <v>13</v>
       </c>
       <c r="I230" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J230">
         <v>21.087021087019998</v>
@@ -9588,10 +9590,10 @@
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -9600,7 +9602,7 @@
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J231">
         <v>21.087021087019998</v>
@@ -9623,10 +9625,10 @@
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D232">
         <v>10</v>
@@ -9635,7 +9637,7 @@
         <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J232">
         <v>21.087021087019998</v>
@@ -9658,10 +9660,10 @@
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -9670,7 +9672,7 @@
         <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J233">
         <v>0.21780021780020001</v>
@@ -9696,10 +9698,10 @@
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -9708,7 +9710,7 @@
         <v>17</v>
       </c>
       <c r="I234" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J234">
         <v>0.21780021780020001</v>
@@ -9734,10 +9736,10 @@
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D235">
         <v>10</v>
@@ -9746,7 +9748,7 @@
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J235">
         <v>0.21780021780020001</v>
@@ -9772,10 +9774,10 @@
     </row>
     <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D236">
         <v>10</v>
@@ -9784,7 +9786,7 @@
         <v>19</v>
       </c>
       <c r="I236" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J236">
         <v>21.087021087019998</v>
@@ -9807,10 +9809,10 @@
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -9819,7 +9821,7 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J237">
         <v>21.087021087019998</v>
@@ -9842,10 +9844,10 @@
     </row>
     <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D238">
         <v>10</v>
@@ -9854,7 +9856,7 @@
         <v>21</v>
       </c>
       <c r="I238" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J238">
         <v>21.087021087019998</v>
@@ -9877,10 +9879,10 @@
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D239">
         <v>10</v>
@@ -9889,7 +9891,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>0.33660033660029998</v>
@@ -9912,10 +9914,10 @@
     </row>
     <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D240">
         <v>10</v>
@@ -9924,7 +9926,7 @@
         <v>23</v>
       </c>
       <c r="I240" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J240">
         <v>0.33660033660029998</v>
@@ -9947,10 +9949,10 @@
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D241">
         <v>10</v>
@@ -9959,7 +9961,7 @@
         <v>24</v>
       </c>
       <c r="I241" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -9976,10 +9978,10 @@
     </row>
     <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D242">
         <v>11</v>
@@ -9988,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J242">
         <v>1.8810018810019999</v>
@@ -10011,10 +10013,10 @@
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D243">
         <v>11</v>
@@ -10023,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J243">
         <v>1.8810018810019999</v>
@@ -10046,10 +10048,10 @@
     </row>
     <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D244">
         <v>11</v>
@@ -10058,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J244">
         <v>1.8810018810019999</v>
@@ -10081,10 +10083,10 @@
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D245">
         <v>11</v>
@@ -10093,7 +10095,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J245">
         <v>1.8810018810019999</v>
@@ -10116,10 +10118,10 @@
     </row>
     <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D246">
         <v>11</v>
@@ -10128,7 +10130,7 @@
         <v>5</v>
       </c>
       <c r="I246" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J246">
         <v>1.8810018810019999</v>
@@ -10151,10 +10153,10 @@
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D247">
         <v>11</v>
@@ -10163,7 +10165,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J247">
         <v>1.8810018810019999</v>
@@ -10186,10 +10188,10 @@
     </row>
     <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D248">
         <v>11</v>
@@ -10198,7 +10200,7 @@
         <v>7</v>
       </c>
       <c r="I248" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J248">
         <v>1.8810018810019999</v>
@@ -10221,10 +10223,10 @@
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D249">
         <v>11</v>
@@ -10233,7 +10235,7 @@
         <v>8</v>
       </c>
       <c r="I249" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J249">
         <v>1.8810018810019999</v>
@@ -10256,10 +10258,10 @@
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D250">
         <v>11</v>
@@ -10268,7 +10270,7 @@
         <v>9</v>
       </c>
       <c r="I250" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J250">
         <v>1.8810018810019999</v>
@@ -10291,10 +10293,10 @@
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D251">
         <v>11</v>
@@ -10303,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="I251" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J251">
         <v>0.1980001980002</v>
@@ -10326,10 +10328,10 @@
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D252">
         <v>11</v>
@@ -10338,7 +10340,7 @@
         <v>11</v>
       </c>
       <c r="I252" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J252">
         <v>0.1980001980002</v>
@@ -10361,10 +10363,10 @@
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -10373,7 +10375,7 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J253">
         <v>0.1980001980002</v>
@@ -10396,10 +10398,10 @@
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D254">
         <v>11</v>
@@ -10408,7 +10410,7 @@
         <v>13</v>
       </c>
       <c r="I254" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J254">
         <v>5.2470052470050002</v>
@@ -10431,10 +10433,10 @@
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D255">
         <v>11</v>
@@ -10443,7 +10445,7 @@
         <v>14</v>
       </c>
       <c r="I255" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J255">
         <v>5.2470052470050002</v>
@@ -10466,10 +10468,10 @@
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D256">
         <v>11</v>
@@ -10478,7 +10480,7 @@
         <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J256">
         <v>5.2470052470050002</v>
@@ -10501,10 +10503,10 @@
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D257">
         <v>11</v>
@@ -10513,7 +10515,7 @@
         <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J257">
         <v>7.9200079200080001E-2</v>
@@ -10539,10 +10541,10 @@
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D258">
         <v>11</v>
@@ -10551,7 +10553,7 @@
         <v>17</v>
       </c>
       <c r="I258" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J258">
         <v>7.9200079200080001E-2</v>
@@ -10577,10 +10579,10 @@
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D259">
         <v>11</v>
@@ -10589,7 +10591,7 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J259">
         <v>7.9200079200080001E-2</v>
@@ -10615,10 +10617,10 @@
     </row>
     <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D260">
         <v>11</v>
@@ -10627,7 +10629,7 @@
         <v>19</v>
       </c>
       <c r="I260" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J260">
         <v>5.2470052470050002</v>
@@ -10650,10 +10652,10 @@
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D261">
         <v>11</v>
@@ -10662,7 +10664,7 @@
         <v>20</v>
       </c>
       <c r="I261" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J261">
         <v>5.2470052470050002</v>
@@ -10685,10 +10687,10 @@
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -10697,7 +10699,7 @@
         <v>21</v>
       </c>
       <c r="I262" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J262">
         <v>5.2470052470050002</v>
@@ -10720,10 +10722,10 @@
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D263">
         <v>11</v>
@@ -10732,7 +10734,7 @@
         <v>22</v>
       </c>
       <c r="I263" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J263">
         <v>0.1188001188001</v>
@@ -10755,10 +10757,10 @@
     </row>
     <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D264">
         <v>11</v>
@@ -10767,7 +10769,7 @@
         <v>23</v>
       </c>
       <c r="I264" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J264">
         <v>0.1188001188001</v>
@@ -10790,10 +10792,10 @@
     </row>
     <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D265">
         <v>11</v>
@@ -10802,7 +10804,7 @@
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -10819,10 +10821,10 @@
     </row>
     <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D266">
         <v>12</v>
@@ -10831,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J266">
         <v>0.5742005742006</v>
@@ -10854,10 +10856,10 @@
     </row>
     <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D267">
         <v>12</v>
@@ -10866,7 +10868,7 @@
         <v>2</v>
       </c>
       <c r="I267" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J267">
         <v>0.5742005742006</v>
@@ -10889,10 +10891,10 @@
     </row>
     <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C268" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D268">
         <v>12</v>
@@ -10901,7 +10903,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J268">
         <v>0.5742005742006</v>
@@ -10924,10 +10926,10 @@
     </row>
     <row r="269" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -10936,7 +10938,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J269">
         <v>0.5742005742006</v>
@@ -10959,10 +10961,10 @@
     </row>
     <row r="270" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D270">
         <v>12</v>
@@ -10971,7 +10973,7 @@
         <v>5</v>
       </c>
       <c r="I270" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J270">
         <v>0.5742005742006</v>
@@ -10994,10 +10996,10 @@
     </row>
     <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D271">
         <v>12</v>
@@ -11006,7 +11008,7 @@
         <v>6</v>
       </c>
       <c r="I271" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J271">
         <v>0.5742005742006</v>
@@ -11029,10 +11031,10 @@
     </row>
     <row r="272" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D272">
         <v>12</v>
@@ -11041,7 +11043,7 @@
         <v>7</v>
       </c>
       <c r="I272" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J272">
         <v>0.5742005742006</v>
@@ -11064,10 +11066,10 @@
     </row>
     <row r="273" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C273" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -11076,7 +11078,7 @@
         <v>8</v>
       </c>
       <c r="I273" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J273">
         <v>0.5742005742006</v>
@@ -11099,10 +11101,10 @@
     </row>
     <row r="274" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D274">
         <v>12</v>
@@ -11111,7 +11113,7 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J274">
         <v>0.5742005742006</v>
@@ -11134,10 +11136,10 @@
     </row>
     <row r="275" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D275">
         <v>12</v>
@@ -11146,7 +11148,7 @@
         <v>10</v>
       </c>
       <c r="I275" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J275">
         <v>6.4350064350059993E-2</v>
@@ -11169,10 +11171,10 @@
     </row>
     <row r="276" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D276">
         <v>12</v>
@@ -11181,7 +11183,7 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J276">
         <v>6.4350064350059993E-2</v>
@@ -11204,10 +11206,10 @@
     </row>
     <row r="277" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D277">
         <v>12</v>
@@ -11216,7 +11218,7 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J277">
         <v>6.4350064350059993E-2</v>
@@ -11239,10 +11241,10 @@
     </row>
     <row r="278" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C278" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D278">
         <v>12</v>
@@ -11251,7 +11253,7 @@
         <v>13</v>
       </c>
       <c r="I278" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J278">
         <v>1.2870012870009999</v>
@@ -11274,10 +11276,10 @@
     </row>
     <row r="279" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D279">
         <v>12</v>
@@ -11286,7 +11288,7 @@
         <v>14</v>
       </c>
       <c r="I279" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J279">
         <v>1.2870012870009999</v>
@@ -11309,10 +11311,10 @@
     </row>
     <row r="280" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D280">
         <v>12</v>
@@ -11321,7 +11323,7 @@
         <v>15</v>
       </c>
       <c r="I280" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J280">
         <v>1.2870012870009999</v>
@@ -11344,10 +11346,10 @@
     </row>
     <row r="281" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D281">
         <v>12</v>
@@ -11356,7 +11358,7 @@
         <v>16</v>
       </c>
       <c r="I281" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J281">
         <v>2.8710028710029999E-2</v>
@@ -11382,10 +11384,10 @@
     </row>
     <row r="282" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D282">
         <v>12</v>
@@ -11394,7 +11396,7 @@
         <v>17</v>
       </c>
       <c r="I282" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J282">
         <v>2.8710028710029999E-2</v>
@@ -11420,10 +11422,10 @@
     </row>
     <row r="283" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D283">
         <v>12</v>
@@ -11432,7 +11434,7 @@
         <v>18</v>
       </c>
       <c r="I283" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J283">
         <v>2.8710028710029999E-2</v>
@@ -11458,10 +11460,10 @@
     </row>
     <row r="284" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C284" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -11470,7 +11472,7 @@
         <v>19</v>
       </c>
       <c r="I284" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J284">
         <v>1.2870012870009999</v>
@@ -11493,10 +11495,10 @@
     </row>
     <row r="285" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D285">
         <v>12</v>
@@ -11505,7 +11507,7 @@
         <v>20</v>
       </c>
       <c r="I285" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J285">
         <v>1.2870012870009999</v>
@@ -11528,10 +11530,10 @@
     </row>
     <row r="286" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D286">
         <v>12</v>
@@ -11540,7 +11542,7 @@
         <v>21</v>
       </c>
       <c r="I286" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J286">
         <v>1.2870012870009999</v>
@@ -11563,10 +11565,10 @@
     </row>
     <row r="287" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D287">
         <v>12</v>
@@ -11575,7 +11577,7 @@
         <v>22</v>
       </c>
       <c r="I287" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J287">
         <v>3.8610038610039997E-2</v>
@@ -11598,10 +11600,10 @@
     </row>
     <row r="288" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C288" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D288">
         <v>12</v>
@@ -11610,7 +11612,7 @@
         <v>23</v>
       </c>
       <c r="I288" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J288">
         <v>3.8610038610039997E-2</v>
@@ -11633,10 +11635,10 @@
     </row>
     <row r="289" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -11645,7 +11647,7 @@
         <v>24</v>
       </c>
       <c r="I289" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -11662,10 +11664,10 @@
     </row>
     <row r="290" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D290">
         <v>13</v>
@@ -11674,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J290">
         <v>0.17325017325020001</v>
@@ -11697,10 +11699,10 @@
     </row>
     <row r="291" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D291">
         <v>13</v>
@@ -11709,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J291">
         <v>0.17325017325020001</v>
@@ -11732,10 +11734,10 @@
     </row>
     <row r="292" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D292">
         <v>13</v>
@@ -11744,7 +11746,7 @@
         <v>3</v>
       </c>
       <c r="I292" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J292">
         <v>0.17325017325020001</v>
@@ -11767,10 +11769,10 @@
     </row>
     <row r="293" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -11779,7 +11781,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J293">
         <v>0.17325017325020001</v>
@@ -11802,10 +11804,10 @@
     </row>
     <row r="294" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -11814,7 +11816,7 @@
         <v>5</v>
       </c>
       <c r="I294" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J294">
         <v>0.17325017325020001</v>
@@ -11837,10 +11839,10 @@
     </row>
     <row r="295" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C295" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D295">
         <v>13</v>
@@ -11849,7 +11851,7 @@
         <v>6</v>
       </c>
       <c r="I295" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J295">
         <v>0.17325017325020001</v>
@@ -11872,10 +11874,10 @@
     </row>
     <row r="296" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D296">
         <v>13</v>
@@ -11884,7 +11886,7 @@
         <v>7</v>
       </c>
       <c r="I296" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J296">
         <v>0.17325017325020001</v>
@@ -11907,10 +11909,10 @@
     </row>
     <row r="297" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D297">
         <v>13</v>
@@ -11919,7 +11921,7 @@
         <v>8</v>
       </c>
       <c r="I297" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J297">
         <v>0.17325017325020001</v>
@@ -11942,10 +11944,10 @@
     </row>
     <row r="298" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D298">
         <v>13</v>
@@ -11954,7 +11956,7 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J298">
         <v>0.17325017325020001</v>
@@ -11977,10 +11979,10 @@
     </row>
     <row r="299" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D299">
         <v>13</v>
@@ -11989,7 +11991,7 @@
         <v>10</v>
       </c>
       <c r="I299" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J299">
         <v>2.079002079002E-2</v>
@@ -12012,10 +12014,10 @@
     </row>
     <row r="300" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -12024,7 +12026,7 @@
         <v>11</v>
       </c>
       <c r="I300" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J300">
         <v>2.079002079002E-2</v>
@@ -12047,10 +12049,10 @@
     </row>
     <row r="301" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C301" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D301">
         <v>13</v>
@@ -12059,7 +12061,7 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J301">
         <v>2.079002079002E-2</v>
@@ -12082,10 +12084,10 @@
     </row>
     <row r="302" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C302" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D302">
         <v>13</v>
@@ -12094,7 +12096,7 @@
         <v>13</v>
       </c>
       <c r="I302" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J302">
         <v>0.32670032670030003</v>
@@ -12117,10 +12119,10 @@
     </row>
     <row r="303" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C303" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D303">
         <v>13</v>
@@ -12129,7 +12131,7 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J303">
         <v>0.32670032670030003</v>
@@ -12152,10 +12154,10 @@
     </row>
     <row r="304" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C304" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D304">
         <v>13</v>
@@ -12164,7 +12166,7 @@
         <v>15</v>
       </c>
       <c r="I304" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J304">
         <v>0.32670032670030003</v>
@@ -12187,10 +12189,10 @@
     </row>
     <row r="305" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D305">
         <v>13</v>
@@ -12199,7 +12201,7 @@
         <v>16</v>
       </c>
       <c r="I305" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J305">
         <v>1.039501039501E-2</v>
@@ -12225,10 +12227,10 @@
     </row>
     <row r="306" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D306">
         <v>13</v>
@@ -12237,7 +12239,7 @@
         <v>17</v>
       </c>
       <c r="I306" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J306">
         <v>1.039501039501E-2</v>
@@ -12263,10 +12265,10 @@
     </row>
     <row r="307" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D307">
         <v>13</v>
@@ -12275,7 +12277,7 @@
         <v>18</v>
       </c>
       <c r="I307" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J307">
         <v>1.039501039501E-2</v>
@@ -12301,10 +12303,10 @@
     </row>
     <row r="308" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -12313,7 +12315,7 @@
         <v>19</v>
       </c>
       <c r="I308" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J308">
         <v>0.32670032670030003</v>
@@ -12336,10 +12338,10 @@
     </row>
     <row r="309" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D309">
         <v>13</v>
@@ -12348,7 +12350,7 @@
         <v>20</v>
       </c>
       <c r="I309" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J309">
         <v>0.32670032670030003</v>
@@ -12371,10 +12373,10 @@
     </row>
     <row r="310" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D310">
         <v>13</v>
@@ -12383,7 +12385,7 @@
         <v>21</v>
       </c>
       <c r="I310" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J310">
         <v>0.32670032670030003</v>
@@ -12406,10 +12408,10 @@
     </row>
     <row r="311" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D311">
         <v>13</v>
@@ -12418,7 +12420,7 @@
         <v>22</v>
       </c>
       <c r="I311" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J311">
         <v>1.287001287001E-2</v>
@@ -12441,10 +12443,10 @@
     </row>
     <row r="312" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D312">
         <v>13</v>
@@ -12453,7 +12455,7 @@
         <v>23</v>
       </c>
       <c r="I312" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J312">
         <v>1.287001287001E-2</v>
@@ -12476,10 +12478,10 @@
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D313">
         <v>13</v>
@@ -12488,7 +12490,7 @@
         <v>24</v>
       </c>
       <c r="I313" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -12505,10 +12507,10 @@
     </row>
     <row r="314" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D314">
         <v>14</v>
@@ -12517,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J314">
         <v>5.4450054450050002E-2</v>
@@ -12540,10 +12542,10 @@
     </row>
     <row r="315" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D315">
         <v>14</v>
@@ -12552,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="I315" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J315">
         <v>5.4450054450050002E-2</v>
@@ -12575,10 +12577,10 @@
     </row>
     <row r="316" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D316">
         <v>14</v>
@@ -12587,7 +12589,7 @@
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J316">
         <v>5.4450054450050002E-2</v>
@@ -12610,10 +12612,10 @@
     </row>
     <row r="317" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D317">
         <v>14</v>
@@ -12622,7 +12624,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J317">
         <v>5.4450054450050002E-2</v>
@@ -12645,10 +12647,10 @@
     </row>
     <row r="318" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D318">
         <v>14</v>
@@ -12657,7 +12659,7 @@
         <v>5</v>
       </c>
       <c r="I318" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J318">
         <v>5.4450054450050002E-2</v>
@@ -12680,10 +12682,10 @@
     </row>
     <row r="319" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D319">
         <v>14</v>
@@ -12692,7 +12694,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J319">
         <v>5.4450054450050002E-2</v>
@@ -12715,10 +12717,10 @@
     </row>
     <row r="320" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D320">
         <v>14</v>
@@ -12727,7 +12729,7 @@
         <v>7</v>
       </c>
       <c r="I320" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J320">
         <v>5.4450054450050002E-2</v>
@@ -12750,10 +12752,10 @@
     </row>
     <row r="321" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D321">
         <v>14</v>
@@ -12762,7 +12764,7 @@
         <v>8</v>
       </c>
       <c r="I321" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J321">
         <v>5.4450054450050002E-2</v>
@@ -12785,10 +12787,10 @@
     </row>
     <row r="322" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C322" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D322">
         <v>14</v>
@@ -12797,7 +12799,7 @@
         <v>9</v>
       </c>
       <c r="I322" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J322">
         <v>5.4450054450050002E-2</v>
@@ -12820,10 +12822,10 @@
     </row>
     <row r="323" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C323" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -12832,7 +12834,7 @@
         <v>10</v>
       </c>
       <c r="I323" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J323">
         <v>6.9300069300070001E-3</v>
@@ -12855,10 +12857,10 @@
     </row>
     <row r="324" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C324" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D324">
         <v>14</v>
@@ -12867,7 +12869,7 @@
         <v>11</v>
       </c>
       <c r="I324" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J324">
         <v>6.9300069300070001E-3</v>
@@ -12890,10 +12892,10 @@
     </row>
     <row r="325" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D325">
         <v>14</v>
@@ -12902,7 +12904,7 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J325">
         <v>6.9300069300070001E-3</v>
@@ -12925,10 +12927,10 @@
     </row>
     <row r="326" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C326" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D326">
         <v>14</v>
@@ -12937,7 +12939,7 @@
         <v>13</v>
       </c>
       <c r="I326" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J326">
         <v>7.9200079200080001E-2</v>
@@ -12960,10 +12962,10 @@
     </row>
     <row r="327" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D327">
         <v>14</v>
@@ -12972,7 +12974,7 @@
         <v>14</v>
       </c>
       <c r="I327" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J327">
         <v>7.9200079200080001E-2</v>
@@ -12995,10 +12997,10 @@
     </row>
     <row r="328" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D328">
         <v>14</v>
@@ -13007,7 +13009,7 @@
         <v>15</v>
       </c>
       <c r="I328" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J328">
         <v>7.9200079200080001E-2</v>
@@ -13030,10 +13032,10 @@
     </row>
     <row r="329" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D329">
         <v>14</v>
@@ -13042,7 +13044,7 @@
         <v>16</v>
       </c>
       <c r="I329" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J329">
         <v>3.7125037125040001E-3</v>
@@ -13068,10 +13070,10 @@
     </row>
     <row r="330" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D330">
         <v>14</v>
@@ -13080,7 +13082,7 @@
         <v>17</v>
       </c>
       <c r="I330" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J330">
         <v>3.7125037125040001E-3</v>
@@ -13106,10 +13108,10 @@
     </row>
     <row r="331" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C331" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D331">
         <v>14</v>
@@ -13118,7 +13120,7 @@
         <v>18</v>
       </c>
       <c r="I331" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J331">
         <v>3.7125037125040001E-3</v>
@@ -13144,10 +13146,10 @@
     </row>
     <row r="332" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C332" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D332">
         <v>14</v>
@@ -13156,7 +13158,7 @@
         <v>19</v>
       </c>
       <c r="I332" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J332">
         <v>7.9200079200080001E-2</v>
@@ -13179,10 +13181,10 @@
     </row>
     <row r="333" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C333" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D333">
         <v>14</v>
@@ -13191,7 +13193,7 @@
         <v>20</v>
       </c>
       <c r="I333" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J333">
         <v>7.9200079200080001E-2</v>
@@ -13214,10 +13216,10 @@
     </row>
     <row r="334" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D334">
         <v>14</v>
@@ -13226,7 +13228,7 @@
         <v>21</v>
       </c>
       <c r="I334" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J334">
         <v>7.9200079200080001E-2</v>
@@ -13249,10 +13251,10 @@
     </row>
     <row r="335" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D335">
         <v>14</v>
@@ -13261,7 +13263,7 @@
         <v>22</v>
       </c>
       <c r="I335" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J335">
         <v>4.455004455004E-3</v>
@@ -13284,10 +13286,10 @@
     </row>
     <row r="336" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C336" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D336">
         <v>14</v>
@@ -13296,7 +13298,7 @@
         <v>23</v>
       </c>
       <c r="I336" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J336">
         <v>4.455004455004E-3</v>
@@ -13319,10 +13321,10 @@
     </row>
     <row r="337" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D337">
         <v>14</v>
@@ -13331,7 +13333,7 @@
         <v>24</v>
       </c>
       <c r="I337" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -13348,10 +13350,10 @@
     </row>
     <row r="338" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D338">
         <v>15</v>
@@ -13360,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J338">
         <v>1.485001485001E-2</v>
@@ -13383,10 +13385,10 @@
     </row>
     <row r="339" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D339">
         <v>15</v>
@@ -13395,7 +13397,7 @@
         <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J339">
         <v>1.485001485001E-2</v>
@@ -13418,10 +13420,10 @@
     </row>
     <row r="340" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D340">
         <v>15</v>
@@ -13430,7 +13432,7 @@
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J340">
         <v>1.485001485001E-2</v>
@@ -13453,10 +13455,10 @@
     </row>
     <row r="341" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D341">
         <v>15</v>
@@ -13465,7 +13467,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J341">
         <v>1.485001485001E-2</v>
@@ -13488,10 +13490,10 @@
     </row>
     <row r="342" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D342">
         <v>15</v>
@@ -13500,7 +13502,7 @@
         <v>5</v>
       </c>
       <c r="I342" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J342">
         <v>1.485001485001E-2</v>
@@ -13523,10 +13525,10 @@
     </row>
     <row r="343" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D343">
         <v>15</v>
@@ -13535,7 +13537,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J343">
         <v>1.485001485001E-2</v>
@@ -13558,10 +13560,10 @@
     </row>
     <row r="344" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D344">
         <v>15</v>
@@ -13570,7 +13572,7 @@
         <v>7</v>
       </c>
       <c r="I344" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J344">
         <v>1.485001485001E-2</v>
@@ -13593,10 +13595,10 @@
     </row>
     <row r="345" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D345">
         <v>15</v>
@@ -13605,7 +13607,7 @@
         <v>8</v>
       </c>
       <c r="I345" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J345">
         <v>1.485001485001E-2</v>
@@ -13628,10 +13630,10 @@
     </row>
     <row r="346" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D346">
         <v>15</v>
@@ -13640,7 +13642,7 @@
         <v>9</v>
       </c>
       <c r="I346" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J346">
         <v>1.485001485001E-2</v>
@@ -13663,10 +13665,10 @@
     </row>
     <row r="347" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D347">
         <v>15</v>
@@ -13675,7 +13677,7 @@
         <v>10</v>
       </c>
       <c r="I347" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J347">
         <v>1.980001980002E-3</v>
@@ -13698,10 +13700,10 @@
     </row>
     <row r="348" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D348">
         <v>15</v>
@@ -13710,7 +13712,7 @@
         <v>11</v>
       </c>
       <c r="I348" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J348">
         <v>1.980001980002E-3</v>
@@ -13733,10 +13735,10 @@
     </row>
     <row r="349" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D349">
         <v>15</v>
@@ -13745,7 +13747,7 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J349">
         <v>1.980001980002E-3</v>
@@ -13768,10 +13770,10 @@
     </row>
     <row r="350" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D350">
         <v>15</v>
@@ -13780,7 +13782,7 @@
         <v>13</v>
       </c>
       <c r="I350" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J350">
         <v>1.980001980002E-2</v>
@@ -13803,10 +13805,10 @@
     </row>
     <row r="351" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D351">
         <v>15</v>
@@ -13815,7 +13817,7 @@
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J351">
         <v>1.980001980002E-2</v>
@@ -13838,10 +13840,10 @@
     </row>
     <row r="352" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D352">
         <v>15</v>
@@ -13850,7 +13852,7 @@
         <v>15</v>
       </c>
       <c r="I352" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J352">
         <v>1.980001980002E-2</v>
@@ -13873,10 +13875,10 @@
     </row>
     <row r="353" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D353">
         <v>15</v>
@@ -13885,7 +13887,7 @@
         <v>16</v>
       </c>
       <c r="I353" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J353">
         <v>1.485001485001E-3</v>
@@ -13911,10 +13913,10 @@
     </row>
     <row r="354" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D354">
         <v>15</v>
@@ -13923,7 +13925,7 @@
         <v>17</v>
       </c>
       <c r="I354" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J354">
         <v>1.485001485001E-3</v>
@@ -13949,10 +13951,10 @@
     </row>
     <row r="355" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D355">
         <v>15</v>
@@ -13961,7 +13963,7 @@
         <v>18</v>
       </c>
       <c r="I355" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J355">
         <v>1.485001485001E-3</v>
@@ -13987,10 +13989,10 @@
     </row>
     <row r="356" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D356">
         <v>15</v>
@@ -13999,7 +14001,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J356">
         <v>1.980001980002E-2</v>
@@ -14022,10 +14024,10 @@
     </row>
     <row r="357" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C357" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D357">
         <v>15</v>
@@ -14034,7 +14036,7 @@
         <v>20</v>
       </c>
       <c r="I357" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J357">
         <v>1.980001980002E-2</v>
@@ -14057,10 +14059,10 @@
     </row>
     <row r="358" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C358" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D358">
         <v>15</v>
@@ -14069,7 +14071,7 @@
         <v>21</v>
       </c>
       <c r="I358" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J358">
         <v>1.980001980002E-2</v>
@@ -14092,10 +14094,10 @@
     </row>
     <row r="359" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D359">
         <v>15</v>
@@ -14104,7 +14106,7 @@
         <v>22</v>
       </c>
       <c r="I359" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J359">
         <v>1.485001485001E-3</v>
@@ -14127,10 +14129,10 @@
     </row>
     <row r="360" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D360">
         <v>15</v>
@@ -14139,7 +14141,7 @@
         <v>23</v>
       </c>
       <c r="I360" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J360">
         <v>1.485001485001E-3</v>
@@ -14162,10 +14164,10 @@
     </row>
     <row r="361" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C361" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D361">
         <v>15</v>
@@ -14174,7 +14176,7 @@
         <v>24</v>
       </c>
       <c r="I361" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J361">
         <v>0</v>
@@ -14191,10 +14193,10 @@
     </row>
     <row r="362" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C362" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D362">
         <v>16</v>
@@ -14203,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J362">
         <v>4.950004950005E-3</v>
@@ -14226,10 +14228,10 @@
     </row>
     <row r="363" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D363">
         <v>16</v>
@@ -14238,7 +14240,7 @@
         <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J363">
         <v>4.950004950005E-3</v>
@@ -14261,10 +14263,10 @@
     </row>
     <row r="364" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D364">
         <v>16</v>
@@ -14273,7 +14275,7 @@
         <v>3</v>
       </c>
       <c r="I364" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J364">
         <v>4.950004950005E-3</v>
@@ -14296,10 +14298,10 @@
     </row>
     <row r="365" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D365">
         <v>16</v>
@@ -14308,7 +14310,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J365">
         <v>4.950004950005E-3</v>
@@ -14331,10 +14333,10 @@
     </row>
     <row r="366" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D366">
         <v>16</v>
@@ -14343,7 +14345,7 @@
         <v>5</v>
       </c>
       <c r="I366" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J366">
         <v>4.950004950005E-3</v>
@@ -14366,10 +14368,10 @@
     </row>
     <row r="367" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D367">
         <v>16</v>
@@ -14378,7 +14380,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J367">
         <v>4.950004950005E-3</v>
@@ -14401,10 +14403,10 @@
     </row>
     <row r="368" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D368">
         <v>16</v>
@@ -14413,7 +14415,7 @@
         <v>7</v>
       </c>
       <c r="I368" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J368">
         <v>4.950004950005E-3</v>
@@ -14436,10 +14438,10 @@
     </row>
     <row r="369" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D369">
         <v>16</v>
@@ -14448,7 +14450,7 @@
         <v>8</v>
       </c>
       <c r="I369" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J369">
         <v>4.950004950005E-3</v>
@@ -14471,10 +14473,10 @@
     </row>
     <row r="370" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D370">
         <v>16</v>
@@ -14483,7 +14485,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J370">
         <v>4.950004950005E-3</v>
@@ -14506,10 +14508,10 @@
     </row>
     <row r="371" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C371" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D371">
         <v>16</v>
@@ -14518,7 +14520,7 @@
         <v>10</v>
       </c>
       <c r="I371" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J371">
         <v>6.435006435006E-4</v>
@@ -14541,10 +14543,10 @@
     </row>
     <row r="372" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D372">
         <v>16</v>
@@ -14553,7 +14555,7 @@
         <v>11</v>
       </c>
       <c r="I372" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J372">
         <v>6.435006435006E-4</v>
@@ -14576,10 +14578,10 @@
     </row>
     <row r="373" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D373">
         <v>16</v>
@@ -14588,7 +14590,7 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J373">
         <v>6.435006435006E-4</v>
@@ -14611,10 +14613,10 @@
     </row>
     <row r="374" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D374">
         <v>16</v>
@@ -14623,7 +14625,7 @@
         <v>13</v>
       </c>
       <c r="I374" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J374">
         <v>4.950004950005E-3</v>
@@ -14646,10 +14648,10 @@
     </row>
     <row r="375" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C375" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D375">
         <v>16</v>
@@ -14658,7 +14660,7 @@
         <v>14</v>
       </c>
       <c r="I375" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J375">
         <v>4.950004950005E-3</v>
@@ -14681,10 +14683,10 @@
     </row>
     <row r="376" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D376">
         <v>16</v>
@@ -14693,7 +14695,7 @@
         <v>15</v>
       </c>
       <c r="I376" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J376">
         <v>4.950004950005E-3</v>
@@ -14716,10 +14718,10 @@
     </row>
     <row r="377" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D377">
         <v>16</v>
@@ -14728,7 +14730,7 @@
         <v>16</v>
       </c>
       <c r="I377" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J377">
         <v>4.950004950005E-4</v>
@@ -14754,10 +14756,10 @@
     </row>
     <row r="378" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C378" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D378">
         <v>16</v>
@@ -14766,7 +14768,7 @@
         <v>17</v>
       </c>
       <c r="I378" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J378">
         <v>4.950004950005E-4</v>
@@ -14792,10 +14794,10 @@
     </row>
     <row r="379" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C379" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D379">
         <v>16</v>
@@ -14804,7 +14806,7 @@
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J379">
         <v>4.950004950005E-4</v>
@@ -14830,10 +14832,10 @@
     </row>
     <row r="380" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C380" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D380">
         <v>16</v>
@@ -14842,7 +14844,7 @@
         <v>19</v>
       </c>
       <c r="I380" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J380">
         <v>4.950004950005E-3</v>
@@ -14865,10 +14867,10 @@
     </row>
     <row r="381" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D381">
         <v>16</v>
@@ -14877,7 +14879,7 @@
         <v>20</v>
       </c>
       <c r="I381" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J381">
         <v>4.950004950005E-3</v>
@@ -14900,10 +14902,10 @@
     </row>
     <row r="382" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D382">
         <v>16</v>
@@ -14912,7 +14914,7 @@
         <v>21</v>
       </c>
       <c r="I382" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J382">
         <v>4.950004950005E-3</v>
@@ -14935,10 +14937,10 @@
     </row>
     <row r="383" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D383">
         <v>16</v>
@@ -14947,7 +14949,7 @@
         <v>22</v>
       </c>
       <c r="I383" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J383">
         <v>4.950004950005E-4</v>
@@ -14970,10 +14972,10 @@
     </row>
     <row r="384" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C384" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D384">
         <v>16</v>
@@ -14982,7 +14984,7 @@
         <v>23</v>
       </c>
       <c r="I384" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J384">
         <v>4.950004950005E-4</v>
@@ -15005,10 +15007,10 @@
     </row>
     <row r="385" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C385" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D385">
         <v>16</v>
@@ -15017,7 +15019,7 @@
         <v>24</v>
       </c>
       <c r="I385" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J385">
         <v>0</v>
